--- a/Elaby/PEZ/výpočty.xlsx
+++ b/Elaby/PEZ/výpočty.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vinutí" sheetId="2" r:id="rId2"/>
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="511">
   <si>
     <t>2p [-]</t>
   </si>
@@ -5057,6 +5057,39 @@
   </si>
   <si>
     <t>2a</t>
+  </si>
+  <si>
+    <t>Vnitřní průměr statoru zvolený</t>
+  </si>
+  <si>
+    <t>Délka stroje zvolená</t>
+  </si>
+  <si>
+    <t>Výška jha statoru zvolená</t>
+  </si>
+  <si>
+    <t>Hloubka drážky zvolená</t>
+  </si>
+  <si>
+    <t>Šířka dna drážky zvolená</t>
+  </si>
+  <si>
+    <t>Šířka vrcholu drážky zvolená</t>
+  </si>
+  <si>
+    <t>Aktivní hloubka drážky zvolená</t>
+  </si>
+  <si>
+    <t>Vnitřní průměr rotoru zvolený</t>
+  </si>
+  <si>
+    <t>Celková hloubka drážky zvolená</t>
+  </si>
+  <si>
+    <t>Výška jha rotoru zvolená</t>
+  </si>
+  <si>
+    <t>Šířka drážky pod krčkem zvolená</t>
   </si>
 </sst>
 </file>
@@ -5066,7 +5099,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5192,13 +5225,38 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5228,7 +5286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5256,6 +5314,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5334,7 +5396,7 @@
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9420429013133328E-2</c:v>
+                  <c:v>3.8787776192456679E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.04</c:v>
@@ -5382,61 +5444,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.928187798435218</c:v>
+                  <c:v>17.713859753849981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.826604614317446</c:v>
+                  <c:v>35.382146247593425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.665653733475224</c:v>
+                  <c:v>52.95967621305941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.416084840663771</c:v>
+                  <c:v>70.402039378451278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.049161919278163</c:v>
+                  <c:v>87.665967711590724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.53682491548831</c:v>
+                  <c:v>104.70968454592125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116.85184329090714</c:v>
+                  <c:v>121.49322783548432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>131.11088453347503</c:v>
+                  <c:v>134.01123569196309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132.96795975332714</c:v>
+                  <c:v>137.97874254466194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>303.08628257328803</c:v>
+                  <c:v>302.46289157963707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>460.91432572665559</c:v>
+                  <c:v>420.12809251381009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>494.05332157136013</c:v>
+                  <c:v>417.58167789683239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>470.67439254057319</c:v>
+                  <c:v>378.16112925087936</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>430.37125786505982</c:v>
+                  <c:v>334.66556216611355</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>388.83989321405744</c:v>
+                  <c:v>295.96623027022713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>351.11722106356285</c:v>
+                  <c:v>263.41154222713141</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>318.27601965554271</c:v>
+                  <c:v>236.36682656584418</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>290.06361723166805</c:v>
+                  <c:v>213.84521250440332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>265.86450676190645</c:v>
+                  <c:v>194.94376879746221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5492,11 +5554,60 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="60983168"/>
-        <c:axId val="60998016"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$BE$37:$BE$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$BF$37:$BF$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="79773696"/>
+        <c:axId val="79775616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60983168"/>
+        <c:axId val="79773696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5524,13 +5635,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60998016"/>
+        <c:crossAx val="79775616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60998016"/>
+        <c:axId val="79775616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -5557,7 +5668,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60983168"/>
+        <c:crossAx val="79773696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -5567,7 +5678,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5593,7 +5704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5647,7 +5757,7 @@
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9420429013133328E-2</c:v>
+                  <c:v>3.8787776192456679E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.04</c:v>
@@ -5692,64 +5802,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>16.837638451874618</c:v>
+                  <c:v>14.492699975052636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.125853545607516</c:v>
+                  <c:v>14.808142379294354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.772554757247519</c:v>
+                  <c:v>15.527551524765736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.729646791789371</c:v>
+                  <c:v>16.585214718485215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.94156421177934</c:v>
+                  <c:v>17.907995990609589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.354287051202576</c:v>
+                  <c:v>19.428725059872129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.920396531706221</c:v>
+                  <c:v>21.09193108039462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.600726114560107</c:v>
+                  <c:v>22.854346030842635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.156221910085403</c:v>
+                  <c:v>24.235099447196554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.364021791422324</c:v>
+                  <c:v>24.68312853514713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.702718587698008</c:v>
+                  <c:v>46.714924984038241</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.497075166431543</c:v>
+                  <c:v>73.590926250765719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.04532790515033</c:v>
+                  <c:v>89.589901450742772</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110.81595446980121</c:v>
+                  <c:v>99.295472508544918</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119.44041383330242</c:v>
+                  <c:v>105.51168296450301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>125.49984476691789</c:v>
+                  <c:v>109.71671329703297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129.91799371646283</c:v>
+                  <c:v>112.6990835383194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.24566609632623</c:v>
+                  <c:v>114.89926494786917</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.82255339760195</c:v>
+                  <c:v>116.5761220954837</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>137.8657584830876</c:v>
+                  <c:v>117.88915618756668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5804,7 +5914,7 @@
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9420429013133328E-2</c:v>
+                  <c:v>3.8787776192456679E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.04</c:v>
@@ -5849,64 +5959,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.6224135464899699E-7</c:v>
+                  <c:v>4.5653793458821579E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3002703393632724</c:v>
+                  <c:v>2.2715600279193175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.577704802334436</c:v>
+                  <c:v>4.5193880738041088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8309320823189736</c:v>
+                  <c:v>6.7413882209173384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0586795407866312</c:v>
+                  <c:v>8.9356195619673411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.25977395001234</c:v>
+                  <c:v>11.100299988910823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.433141559223715</c:v>
+                  <c:v>13.233808308808873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.577807528976846</c:v>
+                  <c:v>15.334684779989733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.449267710998942</c:v>
+                  <c:v>16.903690078148241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.692894782934403</c:v>
+                  <c:v>17.401630182664512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.570475089838048</c:v>
+                  <c:v>39.286751749778205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.478901843156663</c:v>
+                  <c:v>64.16654051617202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.445578260741755</c:v>
+                  <c:v>78.767968450060863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.127457776388098</c:v>
+                  <c:v>87.597309975421581</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>106.0033113990809</c:v>
+                  <c:v>93.247060617717366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111.5331111430518</c:v>
+                  <c:v>97.068173777689495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.56414674920588</c:v>
+                  <c:v>99.778523619426622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.60015999538354</c:v>
+                  <c:v>101.77847141009788</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120.95136015770628</c:v>
+                  <c:v>103.30313776611722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>122.8158496546435</c:v>
+                  <c:v>104.49734841935403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5962,11 +6072,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="62227968"/>
-        <c:axId val="62229888"/>
+        <c:axId val="79793152"/>
+        <c:axId val="79819904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62227968"/>
+        <c:axId val="79793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5990,17 +6100,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62229888"/>
+        <c:crossAx val="79819904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62229888"/>
+        <c:axId val="79819904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -6023,11 +6132,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62227968"/>
+        <c:crossAx val="79793152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6038,13 +6146,12 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6402,8 +6509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AX26" sqref="AX26"/>
+    <sheetView tabSelected="1" topLeftCell="H23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6414,7 +6521,7 @@
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29.85546875" bestFit="1" customWidth="1"/>
@@ -6448,7 +6555,7 @@
       <c r="G1" s="4">
         <v>155</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -6495,8 +6602,8 @@
         <v>7</v>
       </c>
       <c r="W1">
-        <f>(K18*K8*G16)/(O11*G16*O8)</f>
-        <v>1.7519335289005398</v>
+        <f>(K18*K8*G18)/(O12*G18*O8)</f>
+        <v>1.7520923138955025</v>
       </c>
       <c r="X1" t="s">
         <v>452</v>
@@ -6533,7 +6640,7 @@
       </c>
       <c r="AI1">
         <f>W22</f>
-        <v>16.822790918871348</v>
+        <v>14.479567681080848</v>
       </c>
       <c r="AL1" s="3"/>
     </row>
@@ -6556,7 +6663,7 @@
       <c r="G2" s="4">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="3" t="s">
         <v>52</v>
       </c>
@@ -6577,7 +6684,7 @@
       </c>
       <c r="O2">
         <f>O1/K16</f>
-        <v>6449242.9716642257</v>
+        <v>6459735.9437556043</v>
       </c>
       <c r="P2" t="s">
         <v>138</v>
@@ -6602,8 +6709,8 @@
         <v>7</v>
       </c>
       <c r="W2">
-        <f>(K18*S15*G16)/(S16*G16*O8)</f>
-        <v>1.7499999999999998</v>
+        <f>(K18*S15*G18)/(S16*G18*O8)</f>
+        <v>1.75</v>
       </c>
       <c r="X2" t="s">
         <v>453</v>
@@ -6640,7 +6747,7 @@
       </c>
       <c r="AI2">
         <f>(AE9+(3*AA11*(W22^2)))/(3*K9)</f>
-        <v>0.70694673238243688</v>
+        <v>0.61682393977728944</v>
       </c>
       <c r="AK2" t="s">
         <v>364</v>
@@ -6677,7 +6784,7 @@
       </c>
       <c r="AV2">
         <f>AA24*(K10/K9)</f>
-        <v>3.9420429013133328E-2</v>
+        <v>3.8787776192456679E-2</v>
       </c>
       <c r="AW2">
         <v>0.04</v>
@@ -6726,7 +6833,7 @@
       <c r="G3" s="4">
         <v>0.745</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="21" t="s">
         <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -6736,8 +6843,8 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <f>(PI()*G4)/K1</f>
-        <v>88.269777586862944</v>
+        <f>(PI()*G5)/K1</f>
+        <v>88.413393251027031</v>
       </c>
       <c r="L3" t="s">
         <v>81</v>
@@ -6750,7 +6857,7 @@
       </c>
       <c r="O3">
         <f>K10/(K13*O2)</f>
-        <v>3.0790622939300881E-6</v>
+        <v>3.074060771422182E-6</v>
       </c>
       <c r="P3" t="s">
         <v>110</v>
@@ -6762,7 +6869,7 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <f>(2*K6*K15*G12)/S1</f>
+        <f>(2*K6*K15*G13)/S1</f>
         <v>15.150508474576272</v>
       </c>
       <c r="T3" t="s">
@@ -6788,7 +6895,7 @@
       </c>
       <c r="AA3">
         <f>(AA1*AA6)+AA2</f>
-        <v>5.1128984186623032E-2</v>
+        <v>5.1920626971338805E-2</v>
       </c>
       <c r="AB3" t="s">
         <v>249</v>
@@ -6813,7 +6920,7 @@
       </c>
       <c r="AI3">
         <f>SQRT((AI1^2)+(AI2^2))</f>
-        <v>16.837638432466903</v>
+        <v>14.492699955621912</v>
       </c>
       <c r="AK3" t="s">
         <v>365</v>
@@ -6858,7 +6965,7 @@
       </c>
       <c r="AV3">
         <f t="shared" si="0"/>
-        <v>12.38429301890176</v>
+        <v>12.185539273530699</v>
       </c>
       <c r="AW3">
         <f>2*PI()*50*AW2</f>
@@ -6915,11 +7022,11 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <f>G3*G2</f>
         <v>0.19668000000000002</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
@@ -6927,8 +7034,8 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <f>(PI()*G4)/K2</f>
-        <v>68.654271456448953</v>
+        <f>(PI()*G5)/K2</f>
+        <v>68.765972528576597</v>
       </c>
       <c r="L4" t="s">
         <v>180</v>
@@ -6952,8 +7059,8 @@
         <v>2</v>
       </c>
       <c r="S4">
-        <f>G4-2*O20</f>
-        <v>0.19568000000000002</v>
+        <f>G5-2*O25</f>
+        <v>0.19600000000000001</v>
       </c>
       <c r="T4" t="s">
         <v>157</v>
@@ -7003,7 +7110,7 @@
       </c>
       <c r="AI4">
         <f>1+(AA34/AA45)</f>
-        <v>1.0439231658885628</v>
+        <v>1.0589555519695955</v>
       </c>
       <c r="AK4" t="s">
         <v>368</v>
@@ -7019,96 +7126,95 @@
       </c>
       <c r="AO4">
         <f t="shared" ref="AO4:AV4" si="2">(2*$AI$16)/((AO2/$AI$15)+($AI$15/AO2))</f>
-        <v>16.928187798435218</v>
+        <v>17.713859753849981</v>
       </c>
       <c r="AP4">
         <f t="shared" si="2"/>
-        <v>33.826604614317446</v>
+        <v>35.382146247593425</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="2"/>
-        <v>50.665653733475224</v>
+        <v>52.95967621305941</v>
       </c>
       <c r="AR4">
         <f t="shared" si="2"/>
-        <v>67.416084840663771</v>
+        <v>70.402039378451278</v>
       </c>
       <c r="AS4">
         <f t="shared" si="2"/>
-        <v>84.049161919278163</v>
+        <v>87.665967711590724</v>
       </c>
       <c r="AT4">
         <f t="shared" si="2"/>
-        <v>100.53682491548831</v>
+        <v>104.70968454592125</v>
       </c>
       <c r="AU4">
         <f t="shared" si="2"/>
-        <v>116.85184329090714</v>
+        <v>121.49322783548432</v>
       </c>
       <c r="AV4">
         <f t="shared" si="2"/>
-        <v>131.11088453347503</v>
+        <v>134.01123569196309</v>
       </c>
       <c r="AW4">
         <f>(2*$AI$16)/((AW2/$AI$15)+($AI$15/AW2))</f>
-        <v>132.96795975332714</v>
+        <v>137.97874254466194</v>
       </c>
       <c r="AX4">
         <f t="shared" ref="AX4:BG4" si="3">(2*$AI$16)/((AX2/$AI$15)+($AI$15/AX2))</f>
-        <v>303.08628257328803</v>
+        <v>302.46289157963707</v>
       </c>
       <c r="AY4">
         <f t="shared" si="3"/>
-        <v>460.91432572665559</v>
+        <v>420.12809251381009</v>
       </c>
       <c r="AZ4">
         <f t="shared" si="3"/>
-        <v>494.05332157136013</v>
+        <v>417.58167789683239</v>
       </c>
       <c r="BA4">
         <f t="shared" si="3"/>
-        <v>470.67439254057319</v>
+        <v>378.16112925087936</v>
       </c>
       <c r="BB4">
         <f t="shared" si="3"/>
-        <v>430.37125786505982</v>
+        <v>334.66556216611355</v>
       </c>
       <c r="BC4">
         <f t="shared" si="3"/>
-        <v>388.83989321405744</v>
+        <v>295.96623027022713</v>
       </c>
       <c r="BD4">
         <f>(2*$AI$16)/((BD2/$AI$15)+($AI$15/BD2))</f>
-        <v>351.11722106356285</v>
+        <v>263.41154222713141</v>
       </c>
       <c r="BE4">
         <f t="shared" si="3"/>
-        <v>318.27601965554271</v>
+        <v>236.36682656584418</v>
       </c>
       <c r="BF4">
         <f t="shared" si="3"/>
-        <v>290.06361723166805</v>
+        <v>213.84521250440332</v>
       </c>
       <c r="BG4">
         <f t="shared" si="3"/>
-        <v>265.86450676190645</v>
+        <v>194.94376879746221</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="18.75">
       <c r="D5" t="s">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <f>(PI()*G4)/B2</f>
-        <v>7.7236055388505073E-2</v>
-      </c>
-      <c r="H5" s="17"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="3" t="s">
         <v>49</v>
       </c>
@@ -7129,7 +7235,7 @@
       </c>
       <c r="O5">
         <f>O3/O4</f>
-        <v>1.5395311469650441E-6</v>
+        <v>1.537030385711091E-6</v>
       </c>
       <c r="P5" t="s">
         <v>112</v>
@@ -7153,8 +7259,8 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <f>K17/(2*O9*G16*O8)</f>
-        <v>1.1499999999999997</v>
+        <f>K17/(2*O10*G18*O8)</f>
+        <v>1.4143415008817728</v>
       </c>
       <c r="X5" t="s">
         <v>202</v>
@@ -7192,7 +7298,7 @@
       </c>
       <c r="AI5">
         <f>AI4*AA11</f>
-        <v>0.46018469077902258</v>
+        <v>0.47447284253522748</v>
       </c>
       <c r="AK5" t="s">
         <v>370</v>
@@ -7207,94 +7313,95 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:BF5" si="4">((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AO2))/(($AA$11+(($AI$4*($AA$24/AO2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>20.298474170784836</v>
+        <f t="shared" ref="AO5:AU5" si="4">((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AO2))/(($AA$11+(($AI$4*($AA$24/AO2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
+        <v>20.045566416523606</v>
       </c>
       <c r="AP5">
         <f t="shared" si="4"/>
-        <v>40.55923782340497</v>
+        <v>40.039215554660622</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="4"/>
-        <v>60.744813607461403</v>
+        <v>59.929477383522311</v>
       </c>
       <c r="AR5">
         <f t="shared" si="4"/>
-        <v>80.818187487056974</v>
+        <v>79.665768300518806</v>
       </c>
       <c r="AS5">
         <f t="shared" si="4"/>
-        <v>100.74303291238768</v>
+        <v>99.198814427223311</v>
       </c>
       <c r="AT5">
         <f t="shared" si="4"/>
-        <v>120.48392619364685</v>
+        <v>118.48105168733798</v>
       </c>
       <c r="AU5">
         <f t="shared" si="4"/>
-        <v>140.00655044652319</v>
+        <v>137.46699603339175</v>
       </c>
       <c r="AV5">
         <f t="shared" ref="AV5" si="5">((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AV2))/(($AA$11+(($AI$4*($AA$24/AV2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>157.05796944977575</v>
+        <v>151.62619561392412</v>
       </c>
       <c r="AW5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AW2))/(($AA$11+(($AI$4*($AA$24/AW2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>159.27788572430393</v>
+        <f t="shared" ref="AW5:BG5" si="6">((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AW2))/(($AA$11+(($AI$4*($AA$24/AW2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
+        <v>156.11357807080859</v>
       </c>
       <c r="AX5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AX2))/(($AA$11+(($AI$4*($AA$24/AX2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>361.29254944657765</v>
+        <f t="shared" si="6"/>
+        <v>341.94150608035216</v>
       </c>
       <c r="AY5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AY2))/(($AA$11+(($AI$4*($AA$24/AY2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>542.89810338580151</v>
+        <f t="shared" si="6"/>
+        <v>474.13700802658616</v>
       </c>
       <c r="AZ5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/AZ2))/(($AA$11+(($AI$4*($AA$24/AZ2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>575.73248914206761</v>
+        <f t="shared" si="6"/>
+        <v>470.63409880513808</v>
       </c>
       <c r="BA5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BA2))/(($AA$11+(($AI$4*($AA$24/BA2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>544.34340669241897</v>
+        <f t="shared" si="6"/>
+        <v>425.8470885714658</v>
       </c>
       <c r="BB5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BB2))/(($AA$11+(($AI$4*($AA$24/BB2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>495.21719713859898</v>
+        <f t="shared" si="6"/>
+        <v>376.67102561641366</v>
       </c>
       <c r="BC5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BC2))/(($AA$11+(($AI$4*($AA$24/BC2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>445.91147161190418</v>
+        <f t="shared" si="6"/>
+        <v>333.00406889335687</v>
       </c>
       <c r="BD5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BD2))/(($AA$11+(($AI$4*($AA$24/BD2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>401.71429343202533</v>
+        <f t="shared" si="6"/>
+        <v>296.31023646631195</v>
       </c>
       <c r="BE5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BE2))/(($AA$11+(($AI$4*($AA$24/BE2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>363.54081669226747</v>
+        <f t="shared" si="6"/>
+        <v>265.84737192515524</v>
       </c>
       <c r="BF5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BF2))/(($AA$11+(($AI$4*($AA$24/BF2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>330.91918211755439</v>
+        <f t="shared" si="6"/>
+        <v>240.49062413894487</v>
       </c>
       <c r="BG5">
-        <f>((($B$2/2)*$K$6)/(2*PI()*50))*((($K$9^2)*($AA$24/BG2))/(($AA$11+(($AI$4*($AA$24/BG2))^2))+(($AA$34+($AI$4*$AA$44))^2)))</f>
-        <v>303.04047932398532</v>
+        <f t="shared" si="6"/>
+        <v>219.21645517787809</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="18">
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>0.94</v>
+        <f>(PI()*G5)/B2</f>
+        <v>7.7361719094648659E-2</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -7319,7 +7426,7 @@
       </c>
       <c r="O6">
         <f>SQRT((4*O5)/PI())</f>
-        <v>1.4000685471316666E-3</v>
+        <v>1.3989309734747104E-3</v>
       </c>
       <c r="P6" t="s">
         <v>114</v>
@@ -7344,8 +7451,8 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <f>K17/(2*S21*G16*O8)</f>
-        <v>0.75</v>
+        <f>K17/(2*S25*G18*O8)</f>
+        <v>0.73980940046123489</v>
       </c>
       <c r="X6" t="s">
         <v>208</v>
@@ -7357,8 +7464,8 @@
         <v>2</v>
       </c>
       <c r="AA6">
-        <f>(PI()*(G4+O12))/B2</f>
-        <v>8.225796837324606E-2</v>
+        <f>(PI()*(G5+O14))/B2</f>
+        <v>8.3841253942677607E-2</v>
       </c>
       <c r="AB6" t="s">
         <v>290</v>
@@ -7370,8 +7477,8 @@
         <v>291</v>
       </c>
       <c r="AE6">
-        <f>(PI()/4)*((G2^2)-((G2-2*O9)^2))*G16*AE5</f>
-        <v>17.812349472906917</v>
+        <f>(PI()/4)*((G2^2)-((G2-2*O10)^2))*G18*AE5</f>
+        <v>14.713852139973222</v>
       </c>
       <c r="AF6" t="s">
         <v>346</v>
@@ -7384,7 +7491,7 @@
       </c>
       <c r="AI6">
         <f>AI4^2</f>
-        <v>1.0897755762788</v>
+        <v>1.1213868610472306</v>
       </c>
       <c r="AK6" s="12" t="s">
         <v>384</v>
@@ -7396,98 +7503,98 @@
         <v>200</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" ref="AN6:BF6" si="6">$AI$5+(($AI$6*$AA$24)/AN2)</f>
-        <v>497575558.06457543</v>
+        <f t="shared" ref="AN6:AU6" si="7">$AI$5+(($AI$6*$AA$24)/AN2)</f>
+        <v>503791651.41545892</v>
       </c>
       <c r="AO6" s="13">
-        <f t="shared" si="6"/>
-        <v>99.975296211657167</v>
+        <f t="shared" si="7"/>
+        <v>101.23280303073244</v>
       </c>
       <c r="AP6" s="13">
-        <f t="shared" si="6"/>
-        <v>50.217740451218098</v>
+        <f t="shared" si="7"/>
+        <v>50.853637936633838</v>
       </c>
       <c r="AQ6" s="13">
-        <f t="shared" si="6"/>
-        <v>33.631888531071745</v>
+        <f t="shared" si="7"/>
+        <v>34.060582905267637</v>
       </c>
       <c r="AR6" s="13">
-        <f t="shared" si="6"/>
-        <v>25.338962570998561</v>
+        <f t="shared" si="7"/>
+        <v>25.664055389584533</v>
       </c>
       <c r="AS6" s="13">
-        <f t="shared" si="6"/>
-        <v>20.363206994954652</v>
+        <f t="shared" si="7"/>
+        <v>20.626138880174672</v>
       </c>
       <c r="AT6" s="13">
-        <f t="shared" si="6"/>
-        <v>17.046036610925384</v>
+        <f t="shared" si="7"/>
+        <v>17.267527873901432</v>
       </c>
       <c r="AU6" s="13">
-        <f t="shared" si="6"/>
-        <v>14.676629193761615</v>
+        <f t="shared" si="7"/>
+        <v>14.868520012277687</v>
       </c>
       <c r="AV6" s="13">
-        <f t="shared" ref="AV6" si="7">$AI$5+(($AI$6*$AA$24)/AV2)</f>
-        <v>13.082461263127291</v>
+        <f t="shared" ref="AV6" si="8">$AI$5+(($AI$6*$AA$24)/AV2)</f>
+        <v>13.462885698206028</v>
       </c>
       <c r="AW6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/AW2)</f>
-        <v>12.899573630888792</v>
+        <f t="shared" ref="AW6:BG6" si="9">$AI$5+(($AI$6*$AA$24)/AW2)</f>
+        <v>13.06926411605988</v>
       </c>
       <c r="AX6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/AX2)</f>
-        <v>5.4359402668229295</v>
+        <f t="shared" si="9"/>
+        <v>5.5123893519450888</v>
       </c>
       <c r="AY6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/AY2)</f>
-        <v>2.9480624788009759</v>
+        <f t="shared" si="9"/>
+        <v>2.9934310972401579</v>
       </c>
       <c r="AZ6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/AZ2)</f>
-        <v>2.1187698827936585</v>
+        <f t="shared" si="9"/>
+        <v>2.153778345671848</v>
       </c>
       <c r="BA6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BA2)</f>
-        <v>1.7041235847899994</v>
+        <f t="shared" si="9"/>
+        <v>1.7339519698876926</v>
       </c>
       <c r="BB6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BB2)</f>
-        <v>1.4553358059878041</v>
+        <f t="shared" si="9"/>
+        <v>1.4820561444171996</v>
       </c>
       <c r="BC6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BC2)</f>
-        <v>1.2894772867863407</v>
+        <f t="shared" si="9"/>
+        <v>1.3141255941035377</v>
       </c>
       <c r="BD6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BD2)</f>
-        <v>1.1710069159281522</v>
+        <f t="shared" si="9"/>
+        <v>1.1941752010223505</v>
       </c>
       <c r="BE6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BE2)</f>
-        <v>1.082154137784511</v>
+        <f t="shared" si="9"/>
+        <v>1.10421240621146</v>
       </c>
       <c r="BF6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BF2)</f>
-        <v>1.0130464214505679</v>
+        <f t="shared" si="9"/>
+        <v>1.0342413435807676</v>
       </c>
       <c r="BG6" s="13">
-        <f>$AI$5+(($AI$6*$AA$24)/BG2)</f>
-        <v>0.95776024838341334</v>
+        <f t="shared" si="9"/>
+        <v>0.97826449347621358</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75">
       <c r="D7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
-        <v>87</v>
+        <v>0.94</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -7561,8 +7668,8 @@
         <v>291</v>
       </c>
       <c r="AE7">
-        <f>O12*O11*K5*G16*AE5</f>
-        <v>4.9200031359122418</v>
+        <f>O14*O12*K5*G18*AE5</f>
+        <v>6.3474701322642284</v>
       </c>
       <c r="AF7" t="s">
         <v>346</v>
@@ -7575,7 +7682,7 @@
       </c>
       <c r="AI7">
         <f>AI4*(AA34+AI4*AA44)</f>
-        <v>1.6092808070663684</v>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AK7" t="s">
         <v>385</v>
@@ -7587,98 +7694,98 @@
         <v>200</v>
       </c>
       <c r="AN7">
-        <f t="shared" ref="AN7:BF7" si="8">$AI$7+(($AI$8*$AA$24)/AN2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" ref="AN7:AU7" si="10">$AI$7+(($AI$8*$AA$24)/AN2)</f>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="8"/>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="10"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AV7">
-        <f t="shared" ref="AV7" si="9">$AI$7+(($AI$8*$AA$24)/AV2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" ref="AV7" si="11">$AI$7+(($AI$8*$AA$24)/AV2)</f>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AW7">
-        <f>$AI$7+(($AI$8*$AA$24)/AW2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" ref="AW7:BG7" si="12">$AI$7+(($AI$8*$AA$24)/AW2)</f>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AX7">
-        <f>$AI$7+(($AI$8*$AA$24)/AX2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AY7">
-        <f>$AI$7+(($AI$8*$AA$24)/AY2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="AZ7">
-        <f>$AI$7+(($AI$8*$AA$24)/AZ2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BA7">
-        <f>$AI$7+(($AI$8*$AA$24)/BA2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BB7">
-        <f>$AI$7+(($AI$8*$AA$24)/BB2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BC7">
-        <f>$AI$7+(($AI$8*$AA$24)/BC2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BD7">
-        <f>$AI$7+(($AI$8*$AA$24)/BD2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BE7">
-        <f>$AI$7+(($AI$8*$AA$24)/BE2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BF7">
-        <f>$AI$7+(($AI$8*$AA$24)/BF2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
       <c r="BG7">
-        <f>$AI$7+(($AI$8*$AA$24)/BG2)</f>
-        <v>1.6092808070663684</v>
+        <f t="shared" si="12"/>
+        <v>1.9716632232788824</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="18.75">
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
-        <v>0.755</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
@@ -7690,8 +7797,8 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <f>(PI()*G4)/(B2*K6*K7)</f>
-        <v>8.5817839320561189E-3</v>
+        <f>(PI()*G5)/(B2*K6*K7)</f>
+        <v>8.5957465660720725E-3</v>
       </c>
       <c r="L8" t="s">
         <v>86</v>
@@ -7741,7 +7848,7 @@
       </c>
       <c r="AA8">
         <f>(AA7*AA6)+(2*0.025)</f>
-        <v>0.2062901399091675</v>
+        <v>0.20929838249108745</v>
       </c>
       <c r="AB8" t="s">
         <v>325</v>
@@ -7753,8 +7860,8 @@
         <v>291</v>
       </c>
       <c r="AE8">
-        <f>S22*S16*S1*G16*AE5</f>
-        <v>5.6297517146446268</v>
+        <f>S27*S16*S1*G18*AE5</f>
+        <v>5.5564000299733554</v>
       </c>
       <c r="AF8" t="s">
         <v>346</v>
@@ -7779,98 +7886,97 @@
       </c>
       <c r="AN8">
         <f>SQRT((AN6^2)+(AN7^2))</f>
-        <v>497575558.06457543</v>
+        <v>503791651.41545892</v>
       </c>
       <c r="AO8">
-        <f t="shared" ref="AO8:BF8" si="10">SQRT((AO6^2)+(AO7^2))</f>
-        <v>99.988247496016172</v>
+        <f t="shared" ref="AO8:AU8" si="13">SQRT((AO6^2)+(AO7^2))</f>
+        <v>101.25200178428622</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="10"/>
-        <v>50.24351939048357</v>
+        <f t="shared" si="13"/>
+        <v>50.891845587051321</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="10"/>
-        <v>33.670368439956633</v>
+        <f t="shared" si="13"/>
+        <v>34.117601963101691</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="10"/>
-        <v>25.390013960028817</v>
+        <f t="shared" si="13"/>
+        <v>25.739681328751786</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="10"/>
-        <v>20.426697820141225</v>
+        <f t="shared" si="13"/>
+        <v>20.720160737076434</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="10"/>
-        <v>17.121832520410916</v>
+        <f t="shared" si="13"/>
+        <v>17.379728845468026</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="10"/>
-        <v>14.764593770475635</v>
+        <f t="shared" si="13"/>
+        <v>14.998678049132614</v>
       </c>
       <c r="AV8">
-        <f t="shared" ref="AV8" si="11">SQRT((AV6^2)+(AV7^2))</f>
-        <v>13.18106890268078</v>
+        <f t="shared" ref="AV8" si="14">SQRT((AV6^2)+(AV7^2))</f>
+        <v>13.606496506779065</v>
       </c>
       <c r="AW8">
-        <f>SQRT((AW6^2)+(AW7^2))</f>
-        <v>12.999568630332071</v>
+        <f t="shared" ref="AW8:BG8" si="15">SQRT((AW6^2)+(AW7^2))</f>
+        <v>13.217152507305078</v>
       </c>
       <c r="AX8">
-        <f>SQRT((AX6^2)+(AX7^2))</f>
-        <v>5.6691473168774795</v>
+        <f t="shared" si="15"/>
+        <v>5.8543908507604847</v>
       </c>
       <c r="AY8">
-        <f>SQRT((AY6^2)+(AY7^2))</f>
-        <v>3.3586987204729062</v>
+        <f t="shared" si="15"/>
+        <v>3.5844226313250074</v>
       </c>
       <c r="AZ8">
-        <f>SQRT((AZ6^2)+(AZ7^2))</f>
-        <v>2.6606334832565035</v>
+        <f t="shared" si="15"/>
+        <v>2.9199686690640081</v>
       </c>
       <c r="BA8">
-        <f>SQRT((BA6^2)+(BA7^2))</f>
-        <v>2.3438903362208952</v>
+        <f t="shared" si="15"/>
+        <v>2.6256514048722996</v>
       </c>
       <c r="BB8">
-        <f>SQRT((BB6^2)+(BB7^2))</f>
-        <v>2.1697435388041493</v>
+        <f t="shared" si="15"/>
+        <v>2.4665656855707789</v>
       </c>
       <c r="BC8">
-        <f>SQRT((BC6^2)+(BC7^2))</f>
-        <v>2.0621678857770154</v>
+        <f t="shared" si="15"/>
+        <v>2.3694687048172738</v>
       </c>
       <c r="BD8">
-        <f>SQRT((BD6^2)+(BD7^2))</f>
-        <v>1.9902366475230389</v>
+        <f t="shared" si="15"/>
+        <v>2.3051052637064635</v>
       </c>
       <c r="BE8">
-        <f>SQRT((BE6^2)+(BE7^2))</f>
-        <v>1.9392891207646994</v>
+        <f t="shared" si="15"/>
+        <v>2.2598099265340381</v>
       </c>
       <c r="BF8">
-        <f>SQRT((BF6^2)+(BF7^2))</f>
-        <v>1.9015908518937463</v>
+        <f t="shared" si="15"/>
+        <v>2.2264570561325057</v>
       </c>
       <c r="BG8">
-        <f>SQRT((BG6^2)+(BG7^2))</f>
-        <v>1.8727224592490046</v>
+        <f t="shared" si="15"/>
+        <v>2.2010127862479001</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="18">
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
-        <f>B1*(G6/((G7/100)*G8))</f>
-        <v>12879.652888787392</v>
+        <v>0.755</v>
       </c>
       <c r="H9" t="s">
         <v>63</v>
@@ -7894,8 +8000,8 @@
         <v>2</v>
       </c>
       <c r="O9">
-        <f>K17/(2*O7*G16*O8)</f>
-        <v>2.0871803595217557E-2</v>
+        <f>K17/(2*O7*G18*O8)</f>
+        <v>2.090765696955664E-2</v>
       </c>
       <c r="P9" t="s">
         <v>119</v>
@@ -7920,8 +8026,8 @@
         <v>3</v>
       </c>
       <c r="W9">
-        <f>K8/(K8-((((O15/O20)^2)/(5+(O15/O20)))*O20))</f>
-        <v>1.6351080705883949</v>
+        <f>K8/(K8-((((O18/O25)^2)/(5+(O18/O25)))*O25))</f>
+        <v>1.2351305644324118</v>
       </c>
       <c r="X9" t="s">
         <v>205</v>
@@ -7934,7 +8040,7 @@
       </c>
       <c r="AA9">
         <f>2*(AA3+AA8)</f>
-        <v>0.51483824819158108</v>
+        <v>0.52243801892485253</v>
       </c>
       <c r="AB9" t="s">
         <v>279</v>
@@ -7947,7 +8053,7 @@
       </c>
       <c r="AE9">
         <f>AE1*((50/50)^AE2)*((AE3*(W5^2)*AE6)+(AE4*(W1^2)*AE7))</f>
-        <v>113.52672376476541</v>
+        <v>143.79224143236451</v>
       </c>
       <c r="AF9" t="s">
         <v>372</v>
@@ -7960,7 +8066,7 @@
       </c>
       <c r="AI9">
         <f>AA24*(K10/K9)</f>
-        <v>3.9420429013133328E-2</v>
+        <v>3.8787776192456679E-2</v>
       </c>
       <c r="AK9" t="s">
         <v>390</v>
@@ -7973,98 +8079,98 @@
       </c>
       <c r="AN9">
         <f>$K$9/AN8</f>
-        <v>4.6224135464899699E-7</v>
+        <v>4.5653793458821579E-7</v>
       </c>
       <c r="AO9">
-        <f t="shared" ref="AO9:BF9" si="12">$K$9/AO8</f>
-        <v>2.3002703393632724</v>
+        <f t="shared" ref="AO9:AU9" si="16">$K$9/AO8</f>
+        <v>2.2715600279193175</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="12"/>
-        <v>4.577704802334436</v>
+        <f t="shared" si="16"/>
+        <v>4.5193880738041088</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="12"/>
-        <v>6.8309320823189736</v>
+        <f t="shared" si="16"/>
+        <v>6.7413882209173384</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="12"/>
-        <v>9.0586795407866312</v>
+        <f t="shared" si="16"/>
+        <v>8.9356195619673411</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="12"/>
-        <v>11.25977395001234</v>
+        <f t="shared" si="16"/>
+        <v>11.100299988910823</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="12"/>
-        <v>13.433141559223715</v>
+        <f t="shared" si="16"/>
+        <v>13.233808308808873</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="12"/>
-        <v>15.577807528976846</v>
+        <f t="shared" si="16"/>
+        <v>15.334684779989733</v>
       </c>
       <c r="AV9">
-        <f t="shared" ref="AV9" si="13">$K$9/AV8</f>
-        <v>17.449267710998942</v>
+        <f t="shared" ref="AV9" si="17">$K$9/AV8</f>
+        <v>16.903690078148241</v>
       </c>
       <c r="AW9">
-        <f>$K$9/AW8</f>
-        <v>17.692894782934403</v>
+        <f t="shared" ref="AW9:BG9" si="18">$K$9/AW8</f>
+        <v>17.401630182664512</v>
       </c>
       <c r="AX9">
-        <f>$K$9/AX8</f>
-        <v>40.570475089838048</v>
+        <f t="shared" si="18"/>
+        <v>39.286751749778205</v>
       </c>
       <c r="AY9">
-        <f>$K$9/AY8</f>
-        <v>68.478901843156663</v>
+        <f t="shared" si="18"/>
+        <v>64.16654051617202</v>
       </c>
       <c r="AZ9">
-        <f>$K$9/AZ8</f>
-        <v>86.445578260741755</v>
+        <f t="shared" si="18"/>
+        <v>78.767968450060863</v>
       </c>
       <c r="BA9">
-        <f>$K$9/BA8</f>
-        <v>98.127457776388098</v>
+        <f t="shared" si="18"/>
+        <v>87.597309975421581</v>
       </c>
       <c r="BB9">
-        <f>$K$9/BB8</f>
-        <v>106.0033113990809</v>
+        <f t="shared" si="18"/>
+        <v>93.247060617717366</v>
       </c>
       <c r="BC9">
-        <f>$K$9/BC8</f>
-        <v>111.5331111430518</v>
+        <f t="shared" si="18"/>
+        <v>97.068173777689495</v>
       </c>
       <c r="BD9">
-        <f>$K$9/BD8</f>
-        <v>115.56414674920588</v>
+        <f t="shared" si="18"/>
+        <v>99.778523619426622</v>
       </c>
       <c r="BE9">
-        <f>$K$9/BE8</f>
-        <v>118.60015999538354</v>
+        <f t="shared" si="18"/>
+        <v>101.77847141009788</v>
       </c>
       <c r="BF9">
-        <f>$K$9/BF8</f>
-        <v>120.95136015770628</v>
+        <f t="shared" si="18"/>
+        <v>103.30313776611722</v>
       </c>
       <c r="BG9">
-        <f>$K$9/BG8</f>
-        <v>122.8158496546435</v>
+        <f t="shared" si="18"/>
+        <v>104.49734841935403</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="18">
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
-        <f>2/PI()</f>
-        <v>0.63661977236758138</v>
+        <f>B1*(G7/((G8/100)*G9))</f>
+        <v>12879.652888787392</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -8076,20 +8182,20 @@
         <v>62</v>
       </c>
       <c r="K10">
-        <f>B1/(K6*K9*(G7/100)*G8)</f>
+        <f>B1/(K6*K9*(G8/100)*G9)</f>
         <v>19.85762085844495</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>502</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="P10" t="s">
         <v>187</v>
@@ -8114,8 +8220,8 @@
         <v>3</v>
       </c>
       <c r="W10">
-        <f>S15/(S15-((((S12/O20)^2)/(5+(S12/O20)))*O20))</f>
-        <v>1.0281944021496627</v>
+        <f>S15/(S15-((((S12/O25)^2)/(5+(S12/O25)))*O25))</f>
+        <v>1.0281470748156281</v>
       </c>
       <c r="X10" t="s">
         <v>341</v>
@@ -8128,7 +8234,7 @@
       </c>
       <c r="AA10">
         <f>AA9*K15</f>
-        <v>80.314766717886656</v>
+        <v>81.500330952276997</v>
       </c>
       <c r="AB10" t="s">
         <v>300</v>
@@ -8166,97 +8272,97 @@
         <v>1</v>
       </c>
       <c r="AO10">
-        <f t="shared" ref="AO10:BF10" si="14">AO6/AO8</f>
-        <v>0.99987047193361878</v>
+        <f t="shared" ref="AO10:AU10" si="19">AO6/AO8</f>
+        <v>0.99981038642974507</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="14"/>
-        <v>0.999486920112719</v>
+        <f t="shared" si="19"/>
+        <v>0.99924923826250067</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="14"/>
-        <v>0.99885715806901521</v>
+        <f t="shared" si="19"/>
+        <v>0.99832874954412909</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="14"/>
-        <v>0.99798931228983856</v>
+        <f t="shared" si="19"/>
+        <v>0.99706189295036929</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="14"/>
-        <v>0.99689177243695404</v>
+        <f t="shared" si="19"/>
+        <v>0.995462300795113</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="14"/>
-        <v>0.99557314268813368</v>
+        <f t="shared" si="19"/>
+        <v>0.99354414717489381</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="14"/>
-        <v>0.9940421945851351</v>
+        <f t="shared" si="19"/>
+        <v>0.99132203275324959</v>
       </c>
       <c r="AV10">
-        <f t="shared" ref="AV10" si="15">AV6/AV8</f>
-        <v>0.99251899521339781</v>
+        <f t="shared" ref="AV10" si="20">AV6/AV8</f>
+        <v>0.98944542347830045</v>
       </c>
       <c r="AW10">
-        <f>AW6/AW8</f>
-        <v>0.99230782172187171</v>
+        <f t="shared" ref="AW10:BG10" si="21">AW6/AW8</f>
+        <v>0.98881087350974728</v>
       </c>
       <c r="AX10">
-        <f>AX6/AX8</f>
-        <v>0.95886382254342284</v>
+        <f t="shared" si="21"/>
+        <v>0.94158205225211944</v>
       </c>
       <c r="AY10">
-        <f>AY6/AY8</f>
-        <v>0.87773948310132666</v>
+        <f t="shared" si="21"/>
+        <v>0.83512225123230366</v>
       </c>
       <c r="AZ10">
-        <f>AZ6/AZ8</f>
-        <v>0.79634038138931229</v>
+        <f t="shared" si="21"/>
+        <v>0.73760323817523654</v>
       </c>
       <c r="BA10">
-        <f>BA6/BA8</f>
-        <v>0.72704919614012087</v>
+        <f t="shared" si="21"/>
+        <v>0.66038925299454387</v>
       </c>
       <c r="BB10">
-        <f>BB6/BB8</f>
-        <v>0.67074093318416339</v>
+        <f t="shared" si="21"/>
+        <v>0.60085817016230902</v>
       </c>
       <c r="BC10">
-        <f>BC6/BC8</f>
-        <v>0.62530179801557306</v>
+        <f t="shared" si="21"/>
+        <v>0.55460770232239853</v>
       </c>
       <c r="BD10">
-        <f>BD6/BD8</f>
-        <v>0.58837571772459119</v>
+        <f t="shared" si="21"/>
+        <v>0.51805668913453107</v>
       </c>
       <c r="BE10">
-        <f>BE6/BE8</f>
-        <v>0.55801588643873612</v>
+        <f t="shared" si="21"/>
+        <v>0.48863065572290643</v>
       </c>
       <c r="BF10">
-        <f>BF6/BF8</f>
-        <v>0.53273627207540497</v>
+        <f t="shared" si="21"/>
+        <v>0.46452337391016607</v>
       </c>
       <c r="BG10">
-        <f>BG6/BG8</f>
-        <v>0.51142668987239703</v>
+        <f t="shared" si="21"/>
+        <v>0.44446106791768164</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="18">
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="4">
-        <f>PI()/(2*SQRT(2))</f>
-        <v>1.1107207345395915</v>
-      </c>
-      <c r="H11" s="18" t="s">
+        <f>2/PI()</f>
+        <v>0.63661977236758138</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -8266,21 +8372,20 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <f>((PI()*G4*G15)/(K10*K5))</f>
-        <v>13.397138750415891</v>
+        <f>((PI()*G5*G16)/(K10*K5))</f>
+        <v>13.418936006873755</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <f>(G14*K8*G16)/(O10*G16*O8)</f>
-        <v>4.7824182903099125E-3</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="s">
         <v>189</v>
@@ -8305,8 +8410,8 @@
         <v>62</v>
       </c>
       <c r="W11">
-        <f>(1.59*(10^6))*K18*W9*O20</f>
-        <v>1205.6598627514654</v>
+        <f>(1.59*(10^6))*K18*W9*O25</f>
+        <v>910.81582996052998</v>
       </c>
       <c r="X11" t="s">
         <v>199</v>
@@ -8319,7 +8424,7 @@
       </c>
       <c r="AA11">
         <f>1*AA5*(AA10/(O3*K13))</f>
-        <v>0.4408223764124673</v>
+        <v>0.44805737280732483</v>
       </c>
       <c r="AB11" t="s">
         <v>249</v>
@@ -8344,7 +8449,7 @@
       </c>
       <c r="AI11">
         <f>AI10*(1-AI9)</f>
-        <v>720.43467824014999</v>
+        <v>720.90916785565753</v>
       </c>
       <c r="AL11" t="s">
         <v>394</v>
@@ -8354,99 +8459,100 @@
       </c>
       <c r="AN11">
         <f>AN7/AN8</f>
-        <v>3.2342440881260405E-9</v>
+        <v>3.9136480680838488E-9</v>
       </c>
       <c r="AO11">
-        <f t="shared" ref="AO11:BF11" si="16">AO7/AO8</f>
-        <v>1.6094699600875461E-2</v>
+        <f t="shared" ref="AO11:AU11" si="22">AO7/AO8</f>
+        <v>1.9472832028342914E-2</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="16"/>
-        <v>3.2029619473097182E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.8742222855846734E-2</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="16"/>
-        <v>4.7795164758477504E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.7790205343600742E-2</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="16"/>
-        <v>6.3382430966750919E-2</v>
+        <f t="shared" si="22"/>
+        <v>7.6600141163227678E-2</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="16"/>
-        <v>7.8783209172437946E-2</v>
+        <f t="shared" si="22"/>
+        <v>9.5156753284775894E-2</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="16"/>
-        <v>9.3989986477670942E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.11344614411478678</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="16"/>
-        <v>0.10899594205459309</v>
+        <f t="shared" si="22"/>
+        <v>0.1314558000925225</v>
       </c>
       <c r="AV11">
-        <f t="shared" ref="AV11" si="17">AV7/AV8</f>
-        <v>0.12209031141162392</v>
+        <f t="shared" ref="AV11" si="23">AV7/AV8</f>
+        <v>0.14490601767299577</v>
       </c>
       <c r="AW11">
-        <f>AW7/AW8</f>
-        <v>0.1237949391113957</v>
+        <f t="shared" ref="AW11:BG11" si="24">AW7/AW8</f>
+        <v>0.14917458372286696</v>
       </c>
       <c r="AX11">
-        <f>AX7/AX8</f>
-        <v>0.28386646476365468</v>
+        <f t="shared" si="24"/>
+        <v>0.3367836677701086</v>
       </c>
       <c r="AY11">
-        <f>AY7/AY8</f>
-        <v>0.47913818445727724</v>
+        <f t="shared" si="24"/>
+        <v>0.55006438304682925</v>
       </c>
       <c r="AZ11">
-        <f>AZ7/AZ8</f>
-        <v>0.60484873891637125</v>
+        <f t="shared" si="24"/>
+        <v>0.67523437637120143</v>
       </c>
       <c r="BA11">
-        <f>BA7/BA8</f>
-        <v>0.68658536715546448</v>
+        <f t="shared" si="24"/>
+        <v>0.75092345450738751</v>
       </c>
       <c r="BB11">
-        <f>BB7/BB8</f>
-        <v>0.74169171530443689</v>
+        <f t="shared" si="24"/>
+        <v>0.79935565260352148</v>
       </c>
       <c r="BC11">
-        <f>BC7/BC8</f>
-        <v>0.78038302223875378</v>
+        <f t="shared" si="24"/>
+        <v>0.83211194951440859</v>
       </c>
       <c r="BD11">
-        <f>BD7/BD8</f>
-        <v>0.80858766673260118</v>
+        <f t="shared" si="24"/>
+        <v>0.85534628475429042</v>
       </c>
       <c r="BE11">
-        <f>BE7/BE8</f>
-        <v>0.82983026606770105</v>
+        <f t="shared" si="24"/>
+        <v>0.87249073478622252</v>
       </c>
       <c r="BF11">
-        <f>BF7/BF8</f>
-        <v>0.84628131517551541</v>
+        <f t="shared" si="24"/>
+        <v>0.88556085905550053</v>
       </c>
       <c r="BG11">
-        <f>BG7/BG8</f>
-        <v>0.85932691153376728</v>
+        <f t="shared" si="24"/>
+        <v>0.89579816873304341</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="18">
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="4">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="H12" s="18"/>
+        <f>PI()/(2*SQRT(2))</f>
+        <v>1.1107207345395915</v>
+      </c>
+      <c r="H12" s="22"/>
       <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
@@ -8457,17 +8563,17 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
         <v>2</v>
       </c>
       <c r="O12">
-        <f>((G2-G4)/2)-O9</f>
-        <v>1.2788196404782438E-2</v>
+        <f>(G15*K8*G18)/(O11*G18*O8)</f>
+        <v>4.7901993247460471E-3</v>
       </c>
       <c r="P12" t="s">
         <v>186</v>
@@ -8492,8 +8598,8 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <f>O12</f>
-        <v>1.2788196404782438E-2</v>
+        <f>O14</f>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="X12" t="s">
         <v>216</v>
@@ -8505,8 +8611,8 @@
         <v>200</v>
       </c>
       <c r="AA12">
-        <f>AA4*(S24/S20)*1</f>
-        <v>9.7276455709269455E-5</v>
+        <f>AA4*(S30/S23)*1</f>
+        <v>9.5641281353523651E-5</v>
       </c>
       <c r="AB12" t="s">
         <v>270</v>
@@ -8544,22 +8650,21 @@
       </c>
       <c r="AN12">
         <f>W22</f>
-        <v>16.822790918871348</v>
+        <v>14.479567681080848</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="18">
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
-        <f>(2*PI()*50)/(B2/2)</f>
-        <v>78.539816339744831</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="H13" t="s">
         <v>69</v>
@@ -8574,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>2</v>
       </c>
       <c r="O13">
-        <f>((PI()*(G4+2*O12))/K5)-O11</f>
-        <v>4.9153463050219818E-3</v>
+        <f>((G2-G5)/2)-O10</f>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="P13" t="s">
         <v>184</v>
@@ -8608,8 +8713,8 @@
         <v>2</v>
       </c>
       <c r="W13">
-        <f>S22-0.1*S18</f>
-        <v>1.4370236782940795E-2</v>
+        <f>S27-0.1*S20</f>
+        <v>1.418E-2</v>
       </c>
       <c r="X13" t="s">
         <v>226</v>
@@ -8621,8 +8726,8 @@
         <v>2</v>
       </c>
       <c r="AA13">
-        <f>1.2*S22</f>
-        <v>1.7629848906847552E-2</v>
+        <f>1.2*S27</f>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="AB13" t="s">
         <v>271</v>
@@ -8647,7 +8752,7 @@
       </c>
       <c r="AI13">
         <f>(2*PI()*AI11)/60</f>
-        <v>75.443743085019392</v>
+        <v>75.493431521362169</v>
       </c>
       <c r="AK13" t="s">
         <v>388</v>
@@ -8660,21 +8765,22 @@
       </c>
       <c r="AN13">
         <f>(AE9+(3*AA11*(W22^2)))/(3*K9)</f>
-        <v>0.70694673238243688</v>
+        <v>0.61682393977728944</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="18.75">
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="4">
-        <v>0.9</v>
+        <f>(2*PI()*50)/(B2/2)</f>
+        <v>78.539816339744831</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
@@ -8690,17 +8796,16 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
+        <v>503</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
       </c>
       <c r="O14">
-        <f>1*10^-3</f>
-        <v>1E-3</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="P14" t="s">
         <v>141</v>
@@ -8725,7 +8830,7 @@
       </c>
       <c r="W14">
         <f>2*W12*W3</f>
-        <v>216.22282481206148</v>
+        <v>278.98200000000003</v>
       </c>
       <c r="X14" t="s">
         <v>228</v>
@@ -8751,7 +8856,7 @@
       </c>
       <c r="AE14">
         <f>AE12*AE11*K18</f>
-        <v>0.12892169674438678</v>
+        <v>0.12893338145195724</v>
       </c>
       <c r="AF14" t="s">
         <v>378</v>
@@ -8764,7 +8869,7 @@
       </c>
       <c r="AI14">
         <f>$B$1/$AI$13</f>
-        <v>119.29418705879533</v>
+        <v>119.21566974278146</v>
       </c>
       <c r="AK14" t="s">
         <v>395</v>
@@ -8777,98 +8882,97 @@
       </c>
       <c r="AN14">
         <f>$AN$13+(AN9*AN10)</f>
-        <v>0.70694719462379152</v>
+        <v>0.61682439631522401</v>
       </c>
       <c r="AO14">
-        <f t="shared" ref="AO14:BF14" si="18">$AN$13+(AO9*AO10)</f>
-        <v>3.0069191221764973</v>
+        <f t="shared" ref="AO14:AU14" si="25">$AN$13+(AO9*AO10)</f>
+        <v>2.8879532490896649</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="18"/>
-        <v>5.2823028064528854</v>
+        <f t="shared" si="25"/>
+        <v>5.1328190299386751</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>7.5300721390900272</v>
+        <f t="shared" si="25"/>
+        <v>7.3469456125572172</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="18"/>
-        <v>9.7474120975461176</v>
+        <f t="shared" si="25"/>
+        <v>9.5261896949167966</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="18"/>
-        <v>11.931722742649683</v>
+        <f t="shared" si="25"/>
+        <v>11.666754106254425</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="18"/>
-        <v>14.080621690673368</v>
+        <f t="shared" si="25"/>
+        <v>13.765196729828824</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="18"/>
-        <v>16.191944715311422</v>
+        <f t="shared" si="25"/>
+        <v>15.818434827507028</v>
       </c>
       <c r="AV14">
-        <f t="shared" ref="AV14" si="19">$AN$13+(AV9*AV10)</f>
-        <v>18.025676388112693</v>
+        <f t="shared" ref="AV14" si="26">$AN$13+(AV9*AV10)</f>
+        <v>17.342102727496624</v>
       </c>
       <c r="AW14">
-        <f>$AN$13+(AW9*AW10)</f>
-        <v>18.263744614390344</v>
+        <f t="shared" ref="AW14:BG14" si="27">$AN$13+(AW9*AW10)</f>
+        <v>17.823745081191369</v>
       </c>
       <c r="AX14">
-        <f>$AN$13+(AX9*AX10)</f>
-        <v>39.60850755942726</v>
+        <f t="shared" si="27"/>
+        <v>37.608524278653</v>
       </c>
       <c r="AY14">
-        <f>$AN$13+(AY9*AY10)</f>
-        <v>60.813582639541252</v>
+        <f t="shared" si="27"/>
+        <v>54.203729709431691</v>
       </c>
       <c r="AZ14">
-        <f>$AN$13+(AZ9*AZ10)</f>
-        <v>69.547051493961163</v>
+        <f t="shared" si="27"/>
+        <v>58.71633253302705</v>
       </c>
       <c r="BA14">
-        <f>$AN$13+(BA9*BA10)</f>
-        <v>72.05043602797906</v>
+        <f t="shared" si="27"/>
+        <v>58.465146038777455</v>
       </c>
       <c r="BB14">
-        <f>$AN$13+(BB9*BB10)</f>
-        <v>71.807706740813416</v>
+        <f t="shared" si="27"/>
+        <v>56.645082155552856</v>
       </c>
       <c r="BC14">
-        <f>$AN$13+(BC9*BC10)</f>
-        <v>70.448801668403476</v>
+        <f t="shared" si="27"/>
+        <v>54.451580767252956</v>
       </c>
       <c r="BD14">
-        <f>$AN$13+(BD9*BD10)</f>
-        <v>68.702084519176424</v>
+        <f t="shared" si="27"/>
+        <v>52.307755532789052</v>
       </c>
       <c r="BE14">
-        <f>$AN$13+(BE9*BE10)</f>
-        <v>66.887720143982307</v>
+        <f t="shared" si="27"/>
+        <v>50.348905163368499</v>
       </c>
       <c r="BF14">
-        <f>$AN$13+(BF9*BF10)</f>
-        <v>65.142123445248544</v>
+        <f t="shared" si="27"/>
+        <v>48.603546030400757</v>
       </c>
       <c r="BG14">
-        <f>$AN$13+(BG9*BG10)</f>
-        <v>63.518250185122739</v>
+        <f t="shared" si="27"/>
+        <v>47.061827012809445</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="18.75">
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="4">
-        <f>31000</f>
-        <v>31000</v>
+        <v>0.9</v>
       </c>
       <c r="H15" t="s">
         <v>67</v>
@@ -8884,16 +8988,17 @@
         <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N15" t="s">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>5.0000000000000001E-3</v>
+        <f>((PI()*(G5+2*O14))/K5)-O12</f>
+        <v>5.2454438742213479E-3</v>
       </c>
       <c r="P15" t="s">
         <v>136</v>
@@ -8906,7 +9011,7 @@
       </c>
       <c r="S15">
         <f>(PI()*S4)/S1</f>
-        <v>1.0419438143295776E-2</v>
+        <v>1.0436477289891517E-2</v>
       </c>
       <c r="T15" t="s">
         <v>159</v>
@@ -8919,7 +9024,7 @@
       </c>
       <c r="W15">
         <f>2*W13*W4</f>
-        <v>242.94322305239709</v>
+        <v>239.72708</v>
       </c>
       <c r="X15" t="s">
         <v>230</v>
@@ -8945,7 +9050,7 @@
       </c>
       <c r="AE15">
         <f>AE13*AE11*K18</f>
-        <v>0.51568678697754711</v>
+        <v>0.51573352580782894</v>
       </c>
       <c r="AF15" t="s">
         <v>353</v>
@@ -8958,7 +9063,7 @@
       </c>
       <c r="AI15">
         <f>AA24/(SQRT((AA11^2)+((AA34+AA44)^2)))</f>
-        <v>0.29187677408989615</v>
+        <v>0.2412539424054311</v>
       </c>
       <c r="AK15" t="s">
         <v>388</v>
@@ -8971,98 +9076,98 @@
       </c>
       <c r="AN15">
         <f>$AN$12+(AN9*AN11)</f>
-        <v>16.822790918871348</v>
+        <v>14.47956768108085</v>
       </c>
       <c r="AO15">
         <f>$AN$12+(AO9*AO11)</f>
-        <v>16.859813078984203</v>
+        <v>14.523801387946818</v>
       </c>
       <c r="AP15">
-        <f t="shared" ref="AP15:BE15" si="20">$AN$12+(AP9*AP11)</f>
-        <v>16.969413061750291</v>
+        <f t="shared" ref="AP15:AU15" si="28">$AN$12+(AP9*AP11)</f>
+        <v>14.654658821008223</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="20"/>
-        <v>17.149276443199753</v>
+        <f t="shared" si="28"/>
+        <v>14.869153890668592</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="20"/>
-        <v>17.396952049515175</v>
+        <f t="shared" si="28"/>
+        <v>15.164037400908445</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="20"/>
-        <v>17.70987204520954</v>
+        <f t="shared" si="28"/>
+        <v>15.535836188512636</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="20"/>
-        <v>18.085371712375427</v>
+        <f t="shared" si="28"/>
+        <v>15.980892205669441</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="20"/>
-        <v>18.520708725637313</v>
+        <f t="shared" si="28"/>
+        <v>16.495400938001026</v>
       </c>
       <c r="AV15">
-        <f t="shared" ref="AV15" si="21">$AN$12+(AV9*AV11)</f>
-        <v>18.953177447612003</v>
+        <f t="shared" ref="AV15" si="29">$AN$12+(AV9*AV11)</f>
+        <v>16.92901409428384</v>
       </c>
       <c r="AW15">
-        <f>$AN$12+(AW9*AW11)</f>
-        <v>19.013081751229045</v>
+        <f t="shared" ref="AW15:BG15" si="30">$AN$12+(AW9*AW11)</f>
+        <v>17.075448619679104</v>
       </c>
       <c r="AX15">
-        <f>$AN$12+(AX9*AX11)</f>
-        <v>28.339388256405591</v>
+        <f t="shared" si="30"/>
+        <v>27.710704030144882</v>
       </c>
       <c r="AY15">
-        <f>$AN$12+(AY9*AY11)</f>
-        <v>49.633647621629528</v>
+        <f t="shared" si="30"/>
+        <v>49.775296202358376</v>
       </c>
       <c r="AZ15">
-        <f>$AN$12+(AZ9*AZ11)</f>
-        <v>69.109289914777477</v>
+        <f t="shared" si="30"/>
+        <v>67.666407735484171</v>
       </c>
       <c r="BA15">
-        <f>$AN$12+(BA9*BA11)</f>
-        <v>84.19566754430511</v>
+        <f t="shared" si="30"/>
+        <v>80.258442293378863</v>
       </c>
       <c r="BB15">
-        <f>$AN$12+(BB9*BB11)</f>
-        <v>95.444568778406023</v>
+        <f t="shared" si="30"/>
+        <v>89.017132674516446</v>
       </c>
       <c r="BC15">
-        <f>$AN$12+(BC9*BC11)</f>
-        <v>103.86133727237694</v>
+        <f t="shared" si="30"/>
+        <v>95.251154999037453</v>
       </c>
       <c r="BD15">
-        <f>$AN$12+(BD9*BD11)</f>
-        <v>110.26653469675564</v>
+        <f t="shared" si="30"/>
+        <v>99.824757157225633</v>
       </c>
       <c r="BE15">
-        <f>$AN$12+(BE9*BE11)</f>
-        <v>115.24079324351239</v>
+        <f t="shared" si="30"/>
+        <v>103.2803409870957</v>
       </c>
       <c r="BF15">
-        <f>$AN$12+(BF9*BF11)</f>
-        <v>119.18166706540245</v>
+        <f t="shared" si="30"/>
+        <v>105.96078310437234</v>
       </c>
       <c r="BG15">
-        <f>$AN$12+(BG9*BG11)</f>
-        <v>122.36175568999164</v>
+        <f t="shared" si="30"/>
+        <v>108.08810103259698</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="18">
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4">
-        <f>(2*G9)/((G4^2)*G13*G11*G12*G15*G14*PI()*G10)</f>
-        <v>0.14324564396206105</v>
+        <f>31000</f>
+        <v>31000</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
@@ -9074,21 +9179,20 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <f>(2*K6*K15*K10)/(PI()*G4)</f>
-        <v>30081.0499546024</v>
+        <f>(2*K6*K15*K10)/(PI()*G5)</f>
+        <v>30032.187335386807</v>
       </c>
       <c r="L16" t="s">
-        <v>97</v>
+        <v>504</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N16" t="s">
         <v>2</v>
       </c>
       <c r="O16">
-        <f>(PI()*(G4+(2*O14)-O15)-(K5*O11))/(K5-PI())</f>
-        <v>3.8358358612069674E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P16" t="s">
         <v>89</v>
@@ -9100,8 +9204,8 @@
         <v>2</v>
       </c>
       <c r="S16">
-        <f>(K18*S15*G16)/(S13*O8*G16)</f>
-        <v>5.812913483234163E-3</v>
+        <f>(K18*S15*G18)/(S13*O8*G18)</f>
+        <v>5.822947184214949E-3</v>
       </c>
       <c r="T16" t="s">
         <v>166</v>
@@ -9113,8 +9217,8 @@
         <v>2</v>
       </c>
       <c r="W16">
-        <f>((PI()*(G2-O9))/B2)+O9</f>
-        <v>0.11634802305844266</v>
+        <f>((PI()*(G2-O10))/B2)+O10</f>
+        <v>0.11399667317958487</v>
       </c>
       <c r="Y16" s="7" t="s">
         <v>232</v>
@@ -9150,7 +9254,7 @@
       </c>
       <c r="AI16">
         <f>(((B2/2)*K6)/(2*2*PI()*50))*((K9^2)/(AA11+SQRT((AA11^2)+((AA34+(AI4*AA44))^2))))</f>
-        <v>494.23947888277831</v>
+        <v>427.53741039716709</v>
       </c>
       <c r="AK16" t="s">
         <v>391</v>
@@ -9163,98 +9267,98 @@
       </c>
       <c r="AN16">
         <f>SQRT((AN14^2)+(AN15^2))</f>
-        <v>16.837638451874618</v>
+        <v>14.492699975052636</v>
       </c>
       <c r="AO16">
-        <f t="shared" ref="AO16:BF16" si="22">SQRT((AO14^2)+(AO15^2))</f>
-        <v>17.125853545607516</v>
+        <f t="shared" ref="AO16:AU16" si="31">SQRT((AO14^2)+(AO15^2))</f>
+        <v>14.808142379294354</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="22"/>
-        <v>17.772554757247519</v>
+        <f t="shared" si="31"/>
+        <v>15.527551524765736</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="22"/>
-        <v>18.729646791789371</v>
+        <f t="shared" si="31"/>
+        <v>16.585214718485215</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="22"/>
-        <v>19.94156421177934</v>
+        <f t="shared" si="31"/>
+        <v>17.907995990609589</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="22"/>
-        <v>21.354287051202576</v>
+        <f t="shared" si="31"/>
+        <v>19.428725059872129</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="22"/>
-        <v>22.920396531706221</v>
+        <f t="shared" si="31"/>
+        <v>21.09193108039462</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="22"/>
-        <v>24.600726114560107</v>
+        <f t="shared" si="31"/>
+        <v>22.854346030842635</v>
       </c>
       <c r="AV16">
-        <f t="shared" ref="AV16" si="23">SQRT((AV14^2)+(AV15^2))</f>
-        <v>26.156221910085403</v>
+        <f t="shared" ref="AV16" si="32">SQRT((AV14^2)+(AV15^2))</f>
+        <v>24.235099447196554</v>
       </c>
       <c r="AW16">
-        <f>SQRT((AW14^2)+(AW15^2))</f>
-        <v>26.364021791422324</v>
+        <f t="shared" ref="AW16:BG16" si="33">SQRT((AW14^2)+(AW15^2))</f>
+        <v>24.68312853514713</v>
       </c>
       <c r="AX16">
-        <f>SQRT((AX14^2)+(AX15^2))</f>
-        <v>48.702718587698008</v>
+        <f t="shared" si="33"/>
+        <v>46.714924984038241</v>
       </c>
       <c r="AY16">
-        <f>SQRT((AY14^2)+(AY15^2))</f>
-        <v>78.497075166431543</v>
+        <f t="shared" si="33"/>
+        <v>73.590926250765719</v>
       </c>
       <c r="AZ16">
-        <f>SQRT((AZ14^2)+(AZ15^2))</f>
-        <v>98.04532790515033</v>
+        <f t="shared" si="33"/>
+        <v>89.589901450742772</v>
       </c>
       <c r="BA16">
-        <f>SQRT((BA14^2)+(BA15^2))</f>
-        <v>110.81595446980121</v>
+        <f t="shared" si="33"/>
+        <v>99.295472508544918</v>
       </c>
       <c r="BB16">
-        <f>SQRT((BB14^2)+(BB15^2))</f>
-        <v>119.44041383330242</v>
+        <f t="shared" si="33"/>
+        <v>105.51168296450301</v>
       </c>
       <c r="BC16">
-        <f>SQRT((BC14^2)+(BC15^2))</f>
-        <v>125.49984476691789</v>
+        <f t="shared" si="33"/>
+        <v>109.71671329703297</v>
       </c>
       <c r="BD16">
-        <f>SQRT((BD14^2)+(BD15^2))</f>
-        <v>129.91799371646283</v>
+        <f t="shared" si="33"/>
+        <v>112.6990835383194</v>
       </c>
       <c r="BE16">
-        <f>SQRT((BE14^2)+(BE15^2))</f>
-        <v>133.24566609632623</v>
+        <f t="shared" si="33"/>
+        <v>114.89926494786917</v>
       </c>
       <c r="BF16">
-        <f>SQRT((BF14^2)+(BF15^2))</f>
-        <v>135.82255339760195</v>
+        <f t="shared" si="33"/>
+        <v>116.5761220954837</v>
       </c>
       <c r="BG16">
-        <f>SQRT((BG14^2)+(BG15^2))</f>
-        <v>137.8657584830876</v>
+        <f t="shared" si="33"/>
+        <v>117.88915618756668</v>
       </c>
     </row>
     <row r="17" spans="4:59" ht="18.75">
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4">
-        <f>G16/G5</f>
-        <v>1.854647330725542</v>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f>(2*G10)/((G5^2)*G14*G12*G13*G16*G15*PI()*G11)</f>
+        <v>0.14278065536568404</v>
       </c>
       <c r="H17" t="s">
         <v>72</v>
@@ -9266,21 +9370,21 @@
         <v>74</v>
       </c>
       <c r="K17">
-        <f>(G6*K9)/(4*G11*K15*50*G12)</f>
+        <f>(G7*K9)/(4*G12*K15*50*G13)</f>
         <v>6.5327019584228195E-3</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N17" t="s">
         <v>2</v>
       </c>
       <c r="O17">
-        <f>O12-(O14+((O16-O15)/2))</f>
-        <v>1.2370278474178955E-2</v>
+        <f>1*10^-3</f>
+        <v>1E-3</v>
       </c>
       <c r="P17" t="s">
         <v>122</v>
@@ -9293,7 +9397,7 @@
       </c>
       <c r="S17">
         <f>((PI()*(S4-2*S10-2*S11))-(S1*S16))/(PI()+S1)</f>
-        <v>4.2927513651757265E-3</v>
+        <v>4.2994026477327467E-3</v>
       </c>
       <c r="T17" t="s">
         <v>167</v>
@@ -9305,8 +9409,8 @@
         <v>2</v>
       </c>
       <c r="W17">
-        <f>((PI()*(S23+S21))/B2)+S21</f>
-        <v>8.4740360931097755E-2</v>
+        <f>((PI()*(S29+S25))/B2)+S25</f>
+        <v>8.5318026488478402E-2</v>
       </c>
       <c r="X17" t="s">
         <v>233</v>
@@ -9332,7 +9436,7 @@
       </c>
       <c r="AE17">
         <f>0.5*AE10*(((S1*AE16)/10000)^1.5)*((AE14*S15*(10^3))^2)</f>
-        <v>13.436944591878065</v>
+        <v>13.483371789960925</v>
       </c>
       <c r="AF17" t="s">
         <v>482</v>
@@ -9345,7 +9449,7 @@
       </c>
       <c r="AI17">
         <f>AV18</f>
-        <v>18.047793117958928</v>
+        <v>16.72221861856562</v>
       </c>
       <c r="AK17" t="s">
         <v>400</v>
@@ -9358,86 +9462,98 @@
       </c>
       <c r="AN17">
         <f>AN14/AN16</f>
-        <v>4.198612511157012E-2</v>
+        <v>4.2561040894864989E-2</v>
       </c>
       <c r="AO17">
-        <f t="shared" ref="AO17:BF17" si="24">AO14/AO16</f>
-        <v>0.17557776692232194</v>
+        <f t="shared" ref="AO17:AU17" si="34">AO14/AO16</f>
+        <v>0.19502468136231435</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="24"/>
-        <v>0.29721685366020889</v>
+        <f t="shared" si="34"/>
+        <v>0.33056203495780151</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="24"/>
-        <v>0.40204026390882236</v>
+        <f t="shared" si="34"/>
+        <v>0.44298163980769006</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="24"/>
-        <v>0.48879877195332505</v>
+        <f t="shared" si="34"/>
+        <v>0.53195174378596255</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="24"/>
-        <v>0.55875069554137813</v>
+        <f t="shared" si="34"/>
+        <v>0.60048994827513458</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="24"/>
-        <v>0.61432714181865822</v>
+        <f t="shared" si="34"/>
+        <v>0.65262856574682515</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="24"/>
-        <v>0.6581897070805609</v>
+        <f t="shared" si="34"/>
+        <v>0.69214121489888925</v>
       </c>
       <c r="AV17">
-        <f t="shared" ref="AV17" si="25">AV14/AV16</f>
-        <v>0.68915443713842683</v>
+        <f t="shared" ref="AV17" si="35">AV14/AV16</f>
+        <v>0.71557794781414474</v>
       </c>
       <c r="AW17">
-        <f>AW14/AW16</f>
-        <v>0.69275259893513486</v>
+        <f t="shared" ref="AW17:BG17" si="36">AW14/AW16</f>
+        <v>0.72210234840415566</v>
       </c>
       <c r="AX17">
-        <f>AX14/AX16</f>
-        <v>0.81327097763762435</v>
+        <f t="shared" si="36"/>
+        <v>0.80506442623001628</v>
       </c>
       <c r="AY17">
-        <f>AY14/AY16</f>
-        <v>0.77472418571778257</v>
+        <f t="shared" si="36"/>
+        <v>0.73655452473487104</v>
       </c>
       <c r="AZ17">
-        <f>AZ14/AZ16</f>
-        <v>0.70933570196472207</v>
+        <f t="shared" si="36"/>
+        <v>0.65539007837071628</v>
       </c>
       <c r="BA17">
-        <f>BA14/BA16</f>
-        <v>0.6501810716038523</v>
+        <f t="shared" si="36"/>
+        <v>0.58879971625842464</v>
       </c>
       <c r="BB17">
-        <f>BB14/BB16</f>
-        <v>0.60120108794191041</v>
+        <f t="shared" si="36"/>
+        <v>0.53686075858168048</v>
       </c>
       <c r="BC17">
-        <f>BC14/BC16</f>
-        <v>0.56134572755243739</v>
+        <f t="shared" si="36"/>
+        <v>0.4962924893661162</v>
       </c>
       <c r="BD17">
-        <f>BD14/BD16</f>
-        <v>0.52881115659093414</v>
+        <f t="shared" si="36"/>
+        <v>0.46413647645150213</v>
       </c>
       <c r="BE17">
-        <f>BE14/BE16</f>
-        <v>0.50198796031105208</v>
+        <f t="shared" si="36"/>
+        <v>0.4382004113447745</v>
       </c>
       <c r="BF17">
-        <f>BF14/BF16</f>
-        <v>0.47961197765553626</v>
+        <f t="shared" si="36"/>
+        <v>0.41692539738619183</v>
       </c>
       <c r="BG17">
-        <f>BG14/BG16</f>
-        <v>0.4607253525748724</v>
+        <f t="shared" si="36"/>
+        <v>0.39920403652675285</v>
       </c>
     </row>
     <row r="18" spans="4:59" ht="18.75">
+      <c r="D18" t="s">
+        <v>501</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.14299999999999999</v>
+      </c>
       <c r="H18" t="s">
         <v>145</v>
       </c>
@@ -9448,34 +9564,32 @@
         <v>7</v>
       </c>
       <c r="K18">
-        <f>K17/(G10*G5*G16)</f>
-        <v>0.9274942211826388</v>
+        <f>K17/(G11*G6*G18)</f>
+        <v>0.92757828382703067</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <f>((O13+O16)/2)*O17</f>
-        <v>5.4127280187260361E-5</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>510</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
       </c>
       <c r="S18">
-        <f>SQRT(((S17^2)*((S1/PI())+(PI()/2))-(4*S8))/((S1/PI())-(PI()/2)))</f>
-        <v>3.2130397276549892E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="T18" t="s">
         <v>162</v>
@@ -9488,7 +9602,7 @@
       </c>
       <c r="W18">
         <f>W16*W7</f>
-        <v>19.255597816172262</v>
+        <v>18.866449411221296</v>
       </c>
       <c r="X18" t="s">
         <v>237</v>
@@ -9514,7 +9628,7 @@
       </c>
       <c r="AE18">
         <f>0.5*AE10*(((K5*AE16)/10000)^1.5)*((AE15*K8*(10^3))^2)</f>
-        <v>196.61098838281396</v>
+        <v>197.28704130060714</v>
       </c>
       <c r="AF18" t="s">
         <v>478</v>
@@ -9527,7 +9641,7 @@
       </c>
       <c r="AI18">
         <f>AV24*100</f>
-        <v>85.683429254785153</v>
+        <v>86.709441675988629</v>
       </c>
       <c r="AK18" t="s">
         <v>402</v>
@@ -9540,115 +9654,128 @@
       </c>
       <c r="AN18">
         <f>3*$K$9*AN16*(10^-3)</f>
-        <v>11.617970531793485</v>
+        <v>9.9999629827863199</v>
       </c>
       <c r="AO18">
-        <f t="shared" ref="AO18:BF18" si="26">3*$K$9*AO16*(10^-3)</f>
-        <v>11.816838946469186</v>
+        <f t="shared" ref="AO18:AU18" si="37">3*$K$9*AO16*(10^-3)</f>
+        <v>10.217618241713105</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="26"/>
-        <v>12.263062782500789</v>
+        <f t="shared" si="37"/>
+        <v>10.714010552088357</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="26"/>
-        <v>12.923456286334666</v>
+        <f t="shared" si="37"/>
+        <v>11.443798155754799</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="26"/>
-        <v>13.759679306127744</v>
+        <f t="shared" si="37"/>
+        <v>12.356517233520618</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="26"/>
-        <v>14.734458065329779</v>
+        <f t="shared" si="37"/>
+        <v>13.40582029131177</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="26"/>
-        <v>15.815073606877293</v>
+        <f t="shared" si="37"/>
+        <v>14.553432445472289</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="26"/>
-        <v>16.974501019046475</v>
+        <f t="shared" si="37"/>
+        <v>15.769498761281419</v>
       </c>
       <c r="AV18">
-        <f t="shared" ref="AV18" si="27">3*$K$9*AV16*(10^-3)</f>
-        <v>18.047793117958928</v>
+        <f t="shared" ref="AV18" si="38">3*$K$9*AV16*(10^-3)</f>
+        <v>16.72221861856562</v>
       </c>
       <c r="AW18">
-        <f>3*$K$9*AW16*(10^-3)</f>
-        <v>18.191175036081404</v>
+        <f t="shared" ref="AW18:BG18" si="39">3*$K$9*AW16*(10^-3)</f>
+        <v>17.031358689251519</v>
       </c>
       <c r="AX18">
-        <f>3*$K$9*AX16*(10^-3)</f>
-        <v>33.604875825511627</v>
+        <f t="shared" si="39"/>
+        <v>32.233298238986386</v>
       </c>
       <c r="AY18">
-        <f>3*$K$9*AY16*(10^-3)</f>
-        <v>54.162981864837761</v>
+        <f t="shared" si="39"/>
+        <v>50.777739113028346</v>
       </c>
       <c r="AZ18">
-        <f>3*$K$9*AZ16*(10^-3)</f>
-        <v>67.651276254553721</v>
+        <f t="shared" si="39"/>
+        <v>61.817032001012514</v>
       </c>
       <c r="BA18">
-        <f>3*$K$9*BA16*(10^-3)</f>
-        <v>76.463008584162836</v>
+        <f t="shared" si="39"/>
+        <v>68.513876030895986</v>
       </c>
       <c r="BB18">
-        <f>3*$K$9*BB16*(10^-3)</f>
-        <v>82.413885544978669</v>
+        <f t="shared" si="39"/>
+        <v>72.803061245507081</v>
       </c>
       <c r="BC18">
-        <f>3*$K$9*BC16*(10^-3)</f>
-        <v>86.594892889173337</v>
+        <f t="shared" si="39"/>
+        <v>75.704532174952746</v>
       </c>
       <c r="BD18">
-        <f>3*$K$9*BD16*(10^-3)</f>
-        <v>89.643415664359367</v>
+        <f t="shared" si="39"/>
+        <v>77.762367641440392</v>
       </c>
       <c r="BE18">
-        <f>3*$K$9*BE16*(10^-3)</f>
-        <v>91.939509606465109</v>
+        <f t="shared" si="39"/>
+        <v>79.280492814029728</v>
       </c>
       <c r="BF18">
-        <f>3*$K$9*BF16*(10^-3)</f>
-        <v>93.71756184434534</v>
+        <f t="shared" si="39"/>
+        <v>80.43752424588375</v>
       </c>
       <c r="BG18">
-        <f>3*$K$9*BG16*(10^-3)</f>
-        <v>95.127373353330455</v>
+        <f t="shared" si="39"/>
+        <v>81.343517769421013</v>
       </c>
     </row>
     <row r="19" spans="4:59" ht="18">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <f>G18/G6</f>
+        <v>1.8484594405799821</v>
+      </c>
       <c r="K19">
         <f>3*K9*K10</f>
         <v>13701.758392327016</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>101</v>
+      <c r="L19" t="s">
+        <v>97</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <f>(PI()*(O6^2)*K14*O4)/(4*O18)</f>
-        <v>0.73951267609622595</v>
+        <f>(PI()*(G5+(2*O17)-O18)-(K5*O12))/(K5-PI())</f>
+        <v>3.9335473932654748E-3</v>
       </c>
       <c r="P19" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="R19" t="s">
         <v>2</v>
       </c>
       <c r="S19">
-        <f>(S17-S18)*(S1/(2*PI()))</f>
-        <v>1.0138645209290935E-2</v>
+        <f>SQRT(((S18^2)*((S1/PI())+(PI()/2))-(4*S8))/((S1/PI())-(PI()/2)))</f>
+        <v>3.2244813953253245E-3</v>
       </c>
       <c r="T19" t="s">
         <v>169</v>
@@ -9661,7 +9788,7 @@
       </c>
       <c r="W19">
         <f>W17*W8</f>
-        <v>7.6435805559850181</v>
+        <v>7.6956859892607516</v>
       </c>
       <c r="X19" t="s">
         <v>223</v>
@@ -9674,7 +9801,7 @@
       </c>
       <c r="AA19">
         <f>AA18/AA13</f>
-        <v>7.7880992163130046E-3</v>
+        <v>7.8909777273066719E-3</v>
       </c>
       <c r="AB19" t="s">
         <v>295</v>
@@ -9686,8 +9813,8 @@
         <v>5</v>
       </c>
       <c r="AE19">
-        <f>AE17*(K8-O15)*K5*G16</f>
-        <v>0.49637949258779929</v>
+        <f>AE17*(K8-O18)*K5*G18</f>
+        <v>0.77682837521972203</v>
       </c>
       <c r="AF19" t="s">
         <v>411</v>
@@ -9708,112 +9835,110 @@
         <v>403</v>
       </c>
       <c r="AN19">
-        <f t="shared" ref="AN19:BF19" si="28">3*$AA$11*(AN16^2)*10^-3</f>
-        <v>0.37492745671049449</v>
+        <f t="shared" ref="AN19:AU19" si="40">3*$AA$11*(AN16^2)*10^-3</f>
+        <v>0.28232769731969898</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="28"/>
-        <v>0.38787281108204946</v>
+        <f t="shared" si="40"/>
+        <v>0.29475151480859274</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="28"/>
-        <v>0.41771936400687404</v>
+        <f t="shared" si="40"/>
+        <v>0.32408642552752442</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="28"/>
-        <v>0.46392103112737099</v>
+        <f t="shared" si="40"/>
+        <v>0.36974054721708322</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="28"/>
-        <v>0.52590019121442833</v>
+        <f t="shared" si="40"/>
+        <v>0.43107105236178234</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="28"/>
-        <v>0.60305238430165697</v>
+        <f t="shared" si="40"/>
+        <v>0.5073918508784856</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="28"/>
-        <v>0.69475093483130701</v>
+        <f t="shared" si="40"/>
+        <v>0.59798125445104033</v>
       </c>
       <c r="AU19">
-        <f t="shared" si="28"/>
-        <v>0.8003514535483468</v>
+        <f t="shared" si="40"/>
+        <v>0.70208950316571928</v>
       </c>
       <c r="AV19">
-        <f t="shared" ref="AV19" si="29">3*$AA$11*(AV16^2)*10^-3</f>
-        <v>0.90476316828156877</v>
+        <f t="shared" ref="AV19" si="41">3*$AA$11*(AV16^2)*10^-3</f>
+        <v>0.78948611281138592</v>
       </c>
       <c r="AW19">
-        <f>3*$AA$11*(AW16^2)*10^-3</f>
-        <v>0.9191961783307625</v>
+        <f t="shared" ref="AW19:BG19" si="42">3*$AA$11*(AW16^2)*10^-3</f>
+        <v>0.81894604960070083</v>
       </c>
       <c r="AX19">
-        <f>3*$AA$11*(AX16^2)*10^-3</f>
-        <v>3.1368322521704348</v>
+        <f t="shared" si="42"/>
+        <v>2.9333655979748494</v>
       </c>
       <c r="AY19">
-        <f>3*$AA$11*(AY16^2)*10^-3</f>
-        <v>8.148765803044741</v>
+        <f t="shared" si="42"/>
+        <v>7.2795313578732248</v>
       </c>
       <c r="AZ19">
-        <f>3*$AA$11*(AZ16^2)*10^-3</f>
-        <v>12.712726180623386</v>
+        <f t="shared" si="42"/>
+        <v>10.788796476758193</v>
       </c>
       <c r="BA19">
-        <f>3*$AA$11*(BA16^2)*10^-3</f>
-        <v>16.240128790540432</v>
+        <f t="shared" si="42"/>
+        <v>13.252987133994605</v>
       </c>
       <c r="BB19">
-        <f>3*$AA$11*(BB16^2)*10^-3</f>
-        <v>18.866332539238101</v>
+        <f t="shared" si="42"/>
+        <v>14.964285430630154</v>
       </c>
       <c r="BC19">
-        <f>3*$AA$11*(BC16^2)*10^-3</f>
-        <v>20.829136374350497</v>
+        <f t="shared" si="42"/>
+        <v>16.180817565258643</v>
       </c>
       <c r="BD19">
-        <f>3*$AA$11*(BD16^2)*10^-3</f>
-        <v>22.321506218008029</v>
+        <f t="shared" si="42"/>
+        <v>17.072442220864218</v>
       </c>
       <c r="BE19">
-        <f>3*$AA$11*(BE16^2)*10^-3</f>
-        <v>23.479620362077366</v>
+        <f t="shared" si="42"/>
+        <v>17.745546699048298</v>
       </c>
       <c r="BF19">
-        <f>3*$AA$11*(BF16^2)*10^-3</f>
-        <v>24.396564157998238</v>
+        <f t="shared" si="42"/>
+        <v>18.267288662371069</v>
       </c>
       <c r="BG19">
-        <f>3*$AA$11*(BG16^2)*10^-3</f>
-        <v>25.136089562887914</v>
+        <f t="shared" si="42"/>
+        <v>18.681106705604989</v>
       </c>
     </row>
     <row r="20" spans="4:59" ht="18.75">
       <c r="L20" t="s">
-        <v>130</v>
+        <v>505</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
         <v>2</v>
       </c>
       <c r="O20">
-        <f>0.5*10^-3</f>
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="R20" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <f>(PI()/8)*((S17^2)-(S18^2))+((1/2)*(S17+S18)*S19)</f>
-        <v>4.1231745150389084E-5</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="T20" t="s">
         <v>171</v>
@@ -9826,7 +9951,7 @@
       </c>
       <c r="W20">
         <f>W11+W14+W18+W15+W19</f>
-        <v>1691.7250889880811</v>
+        <v>1456.0870453610119</v>
       </c>
       <c r="X20" t="s">
         <v>222</v>
@@ -9839,7 +9964,7 @@
       </c>
       <c r="AA20">
         <f>S4-AA13</f>
-        <v>0.17805015109315248</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="AB20" t="s">
         <v>340</v>
@@ -9851,8 +9976,8 @@
         <v>5</v>
       </c>
       <c r="AE20">
-        <f>AE18*(S15-S12)*S1*G16</f>
-        <v>15.651869588683605</v>
+        <f>AE18*(S15-S12)*S1*G18</f>
+        <v>15.707118055852231</v>
       </c>
       <c r="AF20" t="s">
         <v>413</v>
@@ -9873,112 +9998,112 @@
         <v>403</v>
       </c>
       <c r="AN20">
-        <f t="shared" ref="AN20:BF20" si="30">3*$AA$24*(AN9^2)*10^-3</f>
-        <v>2.9267175862200836E-16</v>
+        <f t="shared" ref="AN20:AU20" si="43">3*$AA$24*(AN9^2)*10^-3</f>
+        <v>2.8091213256682039E-16</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="30"/>
-        <v>7.2477129025275118E-3</v>
+        <f t="shared" si="43"/>
+        <v>6.9544884972795673E-3</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="30"/>
-        <v>2.8703759950811977E-2</v>
+        <f t="shared" si="43"/>
+        <v>2.7528086721062328E-2</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="30"/>
-        <v>6.3915053577378034E-2</v>
+        <f t="shared" si="43"/>
+        <v>6.1251317270021671E-2</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="30"/>
-        <v>0.11240173512328491</v>
+        <f t="shared" si="43"/>
+        <v>0.1076133367637607</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="30"/>
-        <v>0.17366110743812049</v>
+        <f t="shared" si="43"/>
+        <v>0.16606808936974232</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="30"/>
-        <v>0.24717150700197391</v>
+        <f t="shared" si="43"/>
+        <v>0.23604045142703964</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="30"/>
-        <v>0.33239607732277349</v>
+        <f t="shared" si="43"/>
+        <v>0.31693227158562948</v>
       </c>
       <c r="AV20">
-        <f t="shared" ref="AV20" si="31">3*$AA$24*(AV9^2)*10^-3</f>
-        <v>0.41705913119755655</v>
+        <f t="shared" ref="AV20" si="44">3*$AA$24*(AV9^2)*10^-3</f>
+        <v>0.38510557021454905</v>
       </c>
       <c r="AW20">
-        <f>3*$AA$24*(AW9^2)*10^-3</f>
-        <v>0.42878641001971762</v>
+        <f t="shared" ref="AW20:BG20" si="45">3*$AA$24*(AW9^2)*10^-3</f>
+        <v>0.40812822182165176</v>
       </c>
       <c r="AX20">
-        <f>3*$AA$24*(AX9^2)*10^-3</f>
-        <v>2.2545683682967161</v>
+        <f t="shared" si="45"/>
+        <v>2.0802187305783217</v>
       </c>
       <c r="AY20">
-        <f>3*$AA$24*(AY9^2)*10^-3</f>
-        <v>6.4232791588242808</v>
+        <f t="shared" si="45"/>
+        <v>5.5492463868806654</v>
       </c>
       <c r="AZ20">
-        <f>3*$AA$24*(AZ9^2)*10^-3</f>
-        <v>10.235964953029034</v>
+        <f t="shared" si="45"/>
+        <v>8.3621132745162701</v>
       </c>
       <c r="BA20">
-        <f>3*$AA$24*(BA9^2)*10^-3</f>
-        <v>13.189378083560053</v>
+        <f t="shared" si="45"/>
+        <v>10.341851480847657</v>
       </c>
       <c r="BB20">
-        <f>3*$AA$24*(BB9^2)*10^-3</f>
-        <v>15.3915404199857</v>
+        <f t="shared" si="45"/>
+        <v>11.718905673737709</v>
       </c>
       <c r="BC20">
-        <f>3*$AA$24*(BC9^2)*10^-3</f>
-        <v>17.039264956462905</v>
+        <f t="shared" si="45"/>
+        <v>12.699027838923419</v>
       </c>
       <c r="BD20">
-        <f>3*$AA$24*(BD9^2)*10^-3</f>
-        <v>18.293190493881383</v>
+        <f t="shared" si="45"/>
+        <v>13.418096301727788</v>
       </c>
       <c r="BE20">
-        <f>3*$AA$24*(BE9^2)*10^-3</f>
-        <v>19.266985586872668</v>
+        <f t="shared" si="45"/>
+        <v>13.961388277438385</v>
       </c>
       <c r="BF20">
-        <f>3*$AA$24*(BF9^2)*10^-3</f>
-        <v>20.038478172909738</v>
+        <f t="shared" si="45"/>
+        <v>14.382811332230222</v>
       </c>
       <c r="BG20">
-        <f>3*$AA$24*(BG9^2)*10^-3</f>
-        <v>20.661034211924129</v>
+        <f t="shared" si="45"/>
+        <v>14.717271387923098</v>
       </c>
     </row>
     <row r="21" spans="4:59" ht="18.75">
       <c r="L21" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <f>K10/(O5*O4*K13)</f>
-        <v>6449242.9716642257</v>
+        <f>O14-(O17+((O20-O18)/2))</f>
+        <v>1.5000000000000001E-2</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R21" t="s">
         <v>2</v>
       </c>
       <c r="S21">
-        <f>K17/(2*S14*G16*O8)</f>
-        <v>3.2003432179333581E-2</v>
+        <f>(S18-S20)*(S1/(2*PI()))</f>
+        <v>1.0329155806664008E-2</v>
       </c>
       <c r="T21" t="s">
         <v>197</v>
@@ -9991,7 +10116,7 @@
       </c>
       <c r="W21">
         <f>W20/W11</f>
-        <v>1.4031528636338233</v>
+        <v>1.5986624270947412</v>
       </c>
       <c r="X21" t="s">
         <v>236</v>
@@ -10013,8 +10138,8 @@
         <v>3</v>
       </c>
       <c r="AE21">
-        <f>((O15/O20)^2)/(5+(O15/O20))</f>
-        <v>6.666666666666667</v>
+        <f>((O18/O25)^2)/(5+(O18/O25))</f>
+        <v>3.2727272727272729</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>416</v>
@@ -10035,112 +10160,110 @@
         <v>403</v>
       </c>
       <c r="AN21">
-        <f>(0.005*($B$1/$AE$39))*((AN16/$K$10)^2)</f>
-        <v>0.38019645846183603</v>
+        <f t="shared" ref="AN21:BG21" si="46">(0.005*($B$1/$AE$39))*((AN16/$K$10)^2)</f>
+        <v>0.27909774897736261</v>
       </c>
       <c r="AO21">
-        <f>(0.005*($B$1/$AE$39))*((AO16/$K$10)^2)</f>
-        <v>0.39332373894638867</v>
+        <f t="shared" si="46"/>
+        <v>0.29137943273625139</v>
       </c>
       <c r="AP21">
-        <f>(0.005*($B$1/$AE$39))*((AP16/$K$10)^2)</f>
-        <v>0.42358973711806763</v>
+        <f t="shared" si="46"/>
+        <v>0.32037873966161728</v>
       </c>
       <c r="AQ21">
-        <f>(0.005*($B$1/$AE$39))*((AQ16/$K$10)^2)</f>
-        <v>0.47044069428285379</v>
+        <f t="shared" si="46"/>
+        <v>0.36551055887758965</v>
       </c>
       <c r="AR21">
-        <f>(0.005*($B$1/$AE$39))*((AR16/$K$10)^2)</f>
-        <v>0.53329087167526024</v>
+        <f t="shared" si="46"/>
+        <v>0.42613941708751268</v>
       </c>
       <c r="AS21">
-        <f>(0.005*($B$1/$AE$39))*((AS16/$K$10)^2)</f>
-        <v>0.61152731461728249</v>
+        <f t="shared" si="46"/>
+        <v>0.50158707336916397</v>
       </c>
       <c r="AT21">
-        <f>(0.005*($B$1/$AE$39))*((AT16/$K$10)^2)</f>
-        <v>0.70451454063518659</v>
+        <f t="shared" si="46"/>
+        <v>0.59114009582615601</v>
       </c>
       <c r="AU21">
-        <f>(0.005*($B$1/$AE$39))*((AU16/$K$10)^2)</f>
-        <v>0.81159910462046125</v>
+        <f t="shared" si="46"/>
+        <v>0.69405730211548367</v>
       </c>
       <c r="AV21">
-        <f>(0.005*($B$1/$AE$39))*((AV16/$K$10)^2)</f>
-        <v>0.91747815789596232</v>
+        <f t="shared" si="46"/>
+        <v>0.78045405755934572</v>
       </c>
       <c r="AW21">
-        <f>(0.005*($B$1/$AE$39))*((AW16/$K$10)^2)</f>
-        <v>0.93211400066349959</v>
+        <f t="shared" si="46"/>
+        <v>0.80957696020393688</v>
       </c>
       <c r="AX21">
-        <f>(0.005*($B$1/$AE$39))*((AX16/$K$10)^2)</f>
-        <v>3.1809153790114575</v>
+        <f t="shared" si="46"/>
+        <v>2.8998066540929925</v>
       </c>
       <c r="AY21">
-        <f>(0.005*($B$1/$AE$39))*((AY16/$K$10)^2)</f>
-        <v>8.2632835864693579</v>
+        <f t="shared" si="46"/>
+        <v>7.1962504383404742</v>
       </c>
       <c r="AZ21">
-        <f>(0.005*($B$1/$AE$39))*((AZ16/$K$10)^2)</f>
-        <v>12.891383078941059</v>
+        <f t="shared" si="46"/>
+        <v>10.665368079095707</v>
       </c>
       <c r="BA21">
-        <f>(0.005*($B$1/$AE$39))*((BA16/$K$10)^2)</f>
-        <v>16.468357653238641</v>
+        <f t="shared" si="46"/>
+        <v>13.101367352333652</v>
       </c>
       <c r="BB21">
-        <f>(0.005*($B$1/$AE$39))*((BB16/$K$10)^2)</f>
-        <v>19.131468467299506</v>
+        <f t="shared" si="46"/>
+        <v>14.793087672210508</v>
       </c>
       <c r="BC21">
-        <f>(0.005*($B$1/$AE$39))*((BC16/$K$10)^2)</f>
-        <v>21.121856350098042</v>
+        <f t="shared" si="46"/>
+        <v>15.995702164365566</v>
       </c>
       <c r="BD21">
-        <f>(0.005*($B$1/$AE$39))*((BD16/$K$10)^2)</f>
-        <v>22.635199049115037</v>
+        <f t="shared" si="46"/>
+        <v>16.877126256563091</v>
       </c>
       <c r="BE21">
-        <f>(0.005*($B$1/$AE$39))*((BE16/$K$10)^2)</f>
-        <v>23.809588622855205</v>
+        <f t="shared" si="46"/>
+        <v>17.542530134649589</v>
       </c>
       <c r="BF21">
-        <f>(0.005*($B$1/$AE$39))*((BF16/$K$10)^2)</f>
-        <v>24.739418587500491</v>
+        <f t="shared" si="46"/>
+        <v>18.058303149103502</v>
       </c>
       <c r="BG21">
-        <f>(0.005*($B$1/$AE$39))*((BG16/$K$10)^2)</f>
-        <v>25.489336831281499</v>
+        <f t="shared" si="46"/>
+        <v>18.467386938789296</v>
       </c>
     </row>
     <row r="22" spans="4:59" ht="18">
       <c r="L22" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="N22" t="s">
         <v>2</v>
       </c>
       <c r="O22">
-        <f>O17</f>
-        <v>1.2370278474178955E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R22" t="s">
         <v>2</v>
       </c>
       <c r="S22">
-        <f>S11+S10+(S17/2)+S19+(S18/2)</f>
-        <v>1.4691540755706294E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="T22" t="s">
         <v>173</v>
@@ -10152,8 +10275,8 @@
         <v>62</v>
       </c>
       <c r="W22">
-        <f>((B2/2)*W20)/(0.9*K6*K15*G12)</f>
-        <v>16.822790918871348</v>
+        <f>((B2/2)*W20)/(0.9*K6*K15*G13)</f>
+        <v>14.479567681080848</v>
       </c>
       <c r="X22" t="s">
         <v>217</v>
@@ -10166,7 +10289,7 @@
       </c>
       <c r="AA22">
         <f>AA4*((PI()*AA20)/(S1*AA21))</f>
-        <v>1.9333842354724247E-6</v>
+        <v>1.9393548521883553E-6</v>
       </c>
       <c r="AC22" s="10" t="s">
         <v>323</v>
@@ -10175,7 +10298,7 @@
         <v>3</v>
       </c>
       <c r="AE22">
-        <f>((S12/O20)^2)/(5+(S12/O20))</f>
+        <f>((S12/O25)^2)/(5+(S12/O25))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="AF22" s="2" t="s">
@@ -10188,8 +10311,8 @@
         <v>5</v>
       </c>
       <c r="AI22">
-        <f>AI21*AE29*((2*G16)/AA9)</f>
-        <v>310.50150437992977</v>
+        <f>AI21*AE29*((2*G18)/AA9)</f>
+        <v>310.47336489240513</v>
       </c>
       <c r="AL22" t="s">
         <v>409</v>
@@ -10199,111 +10322,111 @@
       </c>
       <c r="AN22">
         <f>$AE$32+$AE$27+AN19+AN20+AN21</f>
-        <v>345.2797362226911</v>
+        <v>267.99190343016807</v>
       </c>
       <c r="AO22">
         <f>($AE$32*10^-3)+($AE$27*10^-3)+AO19+AO20+AO21</f>
-        <v>1.1329688752384843</v>
+        <v>0.86051591402599459</v>
       </c>
       <c r="AP22">
-        <f t="shared" ref="AP22:BF22" si="32">($AE$32*10^-3)+($AE$27*10^-3)+AP19+AP20+AP21</f>
-        <v>1.2145374733832723</v>
+        <f t="shared" ref="AP22:AU22" si="47">($AE$32*10^-3)+($AE$27*10^-3)+AP19+AP20+AP21</f>
+        <v>0.93942372989407508</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="32"/>
-        <v>1.3428013912951215</v>
+        <f t="shared" si="47"/>
+        <v>1.0639329013485654</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="32"/>
-        <v>1.5161174103204922</v>
+        <f t="shared" si="47"/>
+        <v>1.2322542841969266</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="32"/>
-        <v>1.7327654186645787</v>
+        <f t="shared" si="47"/>
+        <v>1.442477491601263</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="32"/>
-        <v>1.9909615947759862</v>
+        <f t="shared" si="47"/>
+        <v>1.6925922796881068</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="32"/>
-        <v>2.2888712477991002</v>
+        <f t="shared" si="47"/>
+        <v>1.9805095548507035</v>
       </c>
       <c r="AV22">
-        <f t="shared" ref="AV22" si="33">($AE$32*10^-3)+($AE$27*10^-3)+AV19+AV20+AV21</f>
-        <v>2.5838250696826064</v>
+        <f t="shared" ref="AV22" si="48">($AE$32*10^-3)+($AE$27*10^-3)+AV19+AV20+AV21</f>
+        <v>2.2224762185691516</v>
       </c>
       <c r="AW22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+AW19+AW20+AW21</f>
-        <v>2.6246212013214985</v>
+        <f t="shared" ref="AW22:BG22" si="49">($AE$32*10^-3)+($AE$27*10^-3)+AW19+AW20+AW21</f>
+        <v>2.3040817096101605</v>
       </c>
       <c r="AX22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+AX19+AX20+AX21</f>
-        <v>8.9168406117861281</v>
+        <f t="shared" si="49"/>
+        <v>8.1808214606300353</v>
       </c>
       <c r="AY22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+AY19+AY20+AY21</f>
-        <v>23.179853160645898</v>
+        <f t="shared" si="49"/>
+        <v>20.292458661078236</v>
       </c>
       <c r="AZ22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+AZ19+AZ20+AZ21</f>
-        <v>36.184598824901002</v>
+        <f t="shared" si="49"/>
+        <v>30.083708308354041</v>
       </c>
       <c r="BA22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BA19+BA20+BA21</f>
-        <v>46.242389139646647</v>
+        <f t="shared" si="49"/>
+        <v>36.963636445159786</v>
       </c>
       <c r="BB22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BB19+BB20+BB21</f>
-        <v>53.733866038830826</v>
+        <f t="shared" si="49"/>
+        <v>41.743709254562241</v>
       </c>
       <c r="BC22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BC19+BC20+BC21</f>
-        <v>59.334782293218964</v>
+        <f t="shared" si="49"/>
+        <v>45.142978046531503</v>
       </c>
       <c r="BD22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BD19+BD20+BD21</f>
-        <v>63.594420373311969</v>
+        <f t="shared" si="49"/>
+        <v>47.635095257138971</v>
       </c>
       <c r="BE22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BE19+BE20+BE21</f>
-        <v>66.900719184112759</v>
+        <f t="shared" si="49"/>
+        <v>49.516895589120139</v>
       </c>
       <c r="BF22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BF19+BF20+BF21</f>
-        <v>69.518985530715995</v>
+        <f t="shared" si="49"/>
+        <v>50.975833621688665</v>
       </c>
       <c r="BG22">
-        <f>($AE$32*10^-3)+($AE$27*10^-3)+BG19+BG20+BG21</f>
-        <v>71.630985218401065</v>
+        <f t="shared" si="49"/>
+        <v>52.133195510301256</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="18">
+    <row r="23" spans="4:59" ht="18.75">
       <c r="L23" t="s">
-        <v>471</v>
+        <v>106</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>430</v>
+        <v>103</v>
       </c>
       <c r="N23" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="O23">
-        <f>O12-O17</f>
-        <v>4.1791793060348345E-4</v>
+        <f>((O16+O20)/2)*O22</f>
+        <v>5.4000000000000005E-5</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R23" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="S23">
-        <f>S4-2*(S22+S21)</f>
-        <v>0.10229005412992027</v>
+        <f>(PI()/8)*((S18^2)-(S20^2))+((1/2)*(S18+S20)*S22)</f>
+        <v>4.1864767424014471E-5</v>
       </c>
       <c r="T23" t="s">
         <v>60</v>
@@ -10315,7 +10438,7 @@
         <v>62</v>
       </c>
       <c r="W23">
-        <f>B1/(K6*K9*(G7/100)*G8)</f>
+        <f>B1/(K6*K9*(G8/100)*G9)</f>
         <v>19.85762085844495</v>
       </c>
       <c r="X23" s="2" t="s">
@@ -10329,7 +10452,7 @@
       </c>
       <c r="AA23">
         <f>AA12+2*AA22</f>
-        <v>1.011432241802143E-4</v>
+        <v>9.9519991057900358E-5</v>
       </c>
       <c r="AB23" t="s">
         <v>318</v>
@@ -10341,8 +10464,8 @@
         <v>7</v>
       </c>
       <c r="AE23">
-        <f>((AE22*O20)/(2*K8))*W1</f>
-        <v>2.9163658791208795E-2</v>
+        <f>((AE22*O25)/(2*K8))*W1</f>
+        <v>2.9118925280209693E-2</v>
       </c>
       <c r="AF23" t="s">
         <v>420</v>
@@ -10354,8 +10477,8 @@
         <v>479</v>
       </c>
       <c r="AI23">
-        <f>AI19*((AI22+AE27)/(PI()*G4*G16*AI20))</f>
-        <v>13.938483030514403</v>
+        <f>AI19*((AI22+AE27)/(PI()*G5*G18*AI20))</f>
+        <v>12.094385627950739</v>
       </c>
       <c r="AK23" t="s">
         <v>402</v>
@@ -10368,110 +10491,111 @@
       </c>
       <c r="AN23">
         <f>AN18-AN22</f>
-        <v>-333.6617656908976</v>
+        <v>-257.99194044738175</v>
       </c>
       <c r="AO23">
-        <f t="shared" ref="AO23:BF23" si="34">AO18-AO22</f>
-        <v>10.683870071230702</v>
+        <f t="shared" ref="AO23:AU23" si="50">AO18-AO22</f>
+        <v>9.3571023276871106</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="34"/>
-        <v>11.048525309117517</v>
+        <f t="shared" si="50"/>
+        <v>9.7745868221942818</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="34"/>
-        <v>11.580654895039544</v>
+        <f t="shared" si="50"/>
+        <v>10.379865254406234</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="34"/>
-        <v>12.243561895807252</v>
+        <f t="shared" si="50"/>
+        <v>11.124262949323692</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="34"/>
-        <v>13.0016926466652</v>
+        <f t="shared" si="50"/>
+        <v>11.963342799710507</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="34"/>
-        <v>13.824112012101306</v>
+        <f t="shared" si="50"/>
+        <v>12.860840165784182</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="34"/>
-        <v>14.685629771247374</v>
+        <f t="shared" si="50"/>
+        <v>13.788989206430715</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23" si="35">AV18-AV22</f>
-        <v>15.463968048276321</v>
+        <f t="shared" ref="AV23" si="51">AV18-AV22</f>
+        <v>14.499742399996467</v>
       </c>
       <c r="AW23">
-        <f>AW18-AW22</f>
-        <v>15.566553834759905</v>
+        <f t="shared" ref="AW23:BG23" si="52">AW18-AW22</f>
+        <v>14.727276979641358</v>
       </c>
       <c r="AX23">
-        <f>AX18-AX22</f>
-        <v>24.688035213725499</v>
+        <f t="shared" si="52"/>
+        <v>24.05247677835635</v>
       </c>
       <c r="AY23">
-        <f>AY18-AY22</f>
-        <v>30.983128704191863</v>
+        <f t="shared" si="52"/>
+        <v>30.485280451950111</v>
       </c>
       <c r="AZ23">
-        <f>AZ18-AZ22</f>
-        <v>31.466677429652719</v>
+        <f t="shared" si="52"/>
+        <v>31.733323692658473</v>
       </c>
       <c r="BA23">
-        <f>BA18-BA22</f>
-        <v>30.220619444516188</v>
+        <f t="shared" si="52"/>
+        <v>31.5502395857362</v>
       </c>
       <c r="BB23">
-        <f>BB18-BB22</f>
-        <v>28.680019506147843</v>
+        <f t="shared" si="52"/>
+        <v>31.05935199094484</v>
       </c>
       <c r="BC23">
-        <f>BC18-BC22</f>
-        <v>27.260110595954373</v>
+        <f t="shared" si="52"/>
+        <v>30.561554128421243</v>
       </c>
       <c r="BD23">
-        <f>BD18-BD22</f>
-        <v>26.048995291047397</v>
+        <f t="shared" si="52"/>
+        <v>30.127272384301421</v>
       </c>
       <c r="BE23">
-        <f>BE18-BE22</f>
-        <v>25.038790422352349</v>
+        <f t="shared" si="52"/>
+        <v>29.763597224909589</v>
       </c>
       <c r="BF23">
-        <f>BF18-BF22</f>
-        <v>24.198576313629346</v>
+        <f t="shared" si="52"/>
+        <v>29.461690624195086</v>
       </c>
       <c r="BG23">
-        <f>BG18-BG22</f>
-        <v>23.49638813492939</v>
+        <f t="shared" si="52"/>
+        <v>29.210322259119756</v>
       </c>
     </row>
     <row r="24" spans="4:59" ht="18">
-      <c r="L24" t="s">
-        <v>427</v>
+      <c r="L24" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>465</v>
+        <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>0.4</v>
+        <f>(PI()*(O6^2)*K14*O4)/(4*O23)</f>
+        <v>0.74005166719422888</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="R24" t="s">
         <v>2</v>
       </c>
       <c r="S24">
-        <f>G16</f>
-        <v>0.14324564396206105</v>
+        <f>K17/(2*S14*G18*O8)</f>
+        <v>3.205840735332019E-2</v>
       </c>
       <c r="T24" t="s">
         <v>176</v>
@@ -10484,7 +10608,7 @@
       </c>
       <c r="W24">
         <f>W22/W23</f>
-        <v>0.84717051648798281</v>
+        <v>0.72916930906770994</v>
       </c>
       <c r="X24" t="s">
         <v>241</v>
@@ -10496,8 +10620,8 @@
         <v>200</v>
       </c>
       <c r="AA24">
-        <f>AA23*((4*K6*((K15*G12)^2))/S1)</f>
-        <v>0.45658534512531118</v>
+        <f>AA23*((4*K6*((K15*G13)^2))/S1)</f>
+        <v>0.44925767229920077</v>
       </c>
       <c r="AB24" t="s">
         <v>319</v>
@@ -10509,8 +10633,8 @@
         <v>7</v>
       </c>
       <c r="AE24">
-        <f>((AE21*O20)/(2*S15))*W2</f>
-        <v>0.27992552252381769</v>
+        <f>((AE21*O25)/(2*S15))*W2</f>
+        <v>0.13719362789252668</v>
       </c>
       <c r="AF24" t="s">
         <v>422</v>
@@ -10535,107 +10659,110 @@
       </c>
       <c r="AN24">
         <f>1-(AN22/AN18)</f>
-        <v>-28.719453606617961</v>
+        <v>-25.799289546519567</v>
       </c>
       <c r="AO24">
-        <f t="shared" ref="AO24:BF24" si="36">1-(AO22/AO18)</f>
-        <v>0.90412250853456799</v>
+        <f t="shared" ref="AO24:AU24" si="53">1-(AO22/AO18)</f>
+        <v>0.91578116409625043</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="36"/>
-        <v>0.90095969539384568</v>
+        <f t="shared" si="53"/>
+        <v>0.91231820004965702</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="36"/>
-        <v>0.89609579964184916</v>
+        <f t="shared" si="53"/>
+        <v>0.90702973900203399</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="36"/>
-        <v>0.88981448065833169</v>
+        <f t="shared" si="53"/>
+        <v>0.90027495119303669</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="36"/>
-        <v>0.88240046488429869</v>
+        <f t="shared" si="53"/>
+        <v>0.89239916243423578</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="36"/>
-        <v>0.87410987490376257</v>
+        <f t="shared" si="53"/>
+        <v>0.88369807012677015</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="36"/>
-        <v>0.86515826030875131</v>
+        <f t="shared" si="53"/>
+        <v>0.87440884552948406</v>
       </c>
       <c r="AV24">
-        <f t="shared" ref="AV24" si="37">1-(AV22/AV18)</f>
-        <v>0.85683429254785159</v>
+        <f t="shared" ref="AV24" si="54">1-(AV22/AV18)</f>
+        <v>0.8670944167598863</v>
       </c>
       <c r="AW24">
-        <f>1-(AW22/AW18)</f>
-        <v>0.8557200842652728</v>
+        <f t="shared" ref="AW24:BG24" si="55">1-(AW22/AW18)</f>
+        <v>0.86471533178006132</v>
       </c>
       <c r="AX24">
-        <f>1-(AX22/AX18)</f>
-        <v>0.73465634397563284</v>
+        <f t="shared" si="55"/>
+        <v>0.74619967835822409</v>
       </c>
       <c r="AY24">
-        <f>1-(AY22/AY18)</f>
-        <v>0.572035136128757</v>
+        <f t="shared" si="55"/>
+        <v>0.60036703060157159</v>
       </c>
       <c r="AZ24">
-        <f>1-(AZ22/AZ18)</f>
-        <v>0.46513058099971383</v>
+        <f t="shared" si="55"/>
+        <v>0.51334272554752713</v>
       </c>
       <c r="BA24">
-        <f>1-(BA22/BA18)</f>
-        <v>0.39523189061090047</v>
+        <f t="shared" si="55"/>
+        <v>0.46049415700125884</v>
       </c>
       <c r="BB24">
-        <f>1-(BB22/BB18)</f>
-        <v>0.34799984634258352</v>
+        <f t="shared" si="55"/>
+        <v>0.42662151095825818</v>
       </c>
       <c r="BC24">
-        <f>1-(BC22/BC18)</f>
-        <v>0.31480044245614636</v>
+        <f t="shared" si="55"/>
+        <v>0.40369517187945447</v>
       </c>
       <c r="BD24">
-        <f>1-(BD22/BD18)</f>
-        <v>0.29058459116037472</v>
+        <f t="shared" si="55"/>
+        <v>0.38742740605863801</v>
       </c>
       <c r="BE24">
-        <f>1-(BE22/BE18)</f>
-        <v>0.27233983006356655</v>
+        <f t="shared" si="55"/>
+        <v>0.37542144566036961</v>
       </c>
       <c r="BF24">
-        <f>1-(BF22/BF18)</f>
-        <v>0.25820748894236645</v>
+        <f t="shared" si="55"/>
+        <v>0.3662679937057205</v>
       </c>
       <c r="BG24">
-        <f>1-(BG22/BG18)</f>
-        <v>0.24699923173172289</v>
+        <f t="shared" si="55"/>
+        <v>0.35909834071745317</v>
       </c>
     </row>
     <row r="25" spans="4:59" ht="18">
       <c r="L25" t="s">
-        <v>470</v>
+        <v>130</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>467</v>
+        <v>131</v>
       </c>
       <c r="N25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <f>SIN(0.8*(PI()/2))</f>
-        <v>0.95105651629515353</v>
+        <f>0.5*10^-3</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>509</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>464</v>
+        <v>133</v>
       </c>
       <c r="R25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="T25" t="s">
         <v>243</v>
@@ -10648,7 +10775,7 @@
       </c>
       <c r="W25">
         <f>1+((W14+W15)/W11)</f>
-        <v>1.3808421114862235</v>
+        <v>1.5694994124360775</v>
       </c>
       <c r="X25" t="s">
         <v>248</v>
@@ -10674,7 +10801,7 @@
       </c>
       <c r="AE25">
         <f>0.11*(((S1*AE16*AE23)/1000)^2)*AE7</f>
-        <v>0.90129846553451465</v>
+        <v>1.1592325983269167</v>
       </c>
       <c r="AF25" s="8" t="s">
         <v>423</v>
@@ -10689,19 +10816,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:59" ht="18">
+    <row r="26" spans="4:59" ht="18.75">
       <c r="L26" t="s">
-        <v>469</v>
+        <v>181</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="O26">
-        <f>SIN(PI()/(2*K6))/(K7*SIN(PI()/(2*K6*K7)))</f>
-        <v>0.95979508052393891</v>
+        <f>K10/(O5*O4*K13)</f>
+        <v>6459735.9437556043</v>
+      </c>
+      <c r="P26" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <f>S11+S10+(S18/2)+S22+(S20/2)</f>
+        <v>1.485E-2</v>
       </c>
       <c r="X26" t="s">
         <v>249</v>
@@ -10713,8 +10853,8 @@
         <v>3</v>
       </c>
       <c r="AA26">
-        <f>((2*(S15/K8))-((K8/S15)*AA27))-(G12*((S15/K8)^2))</f>
-        <v>0.8228102901956913</v>
+        <f>((2*(S15/K8))-((K8/S15)*AA27))-(G13*((S15/K8)^2))</f>
+        <v>0.82280871591757454</v>
       </c>
       <c r="AB26" t="s">
         <v>314</v>
@@ -10727,7 +10867,7 @@
       </c>
       <c r="AE26">
         <f>0.11*(((K5*AE16*AE24)/1000)^2)*AE8</f>
-        <v>141.49934899594737</v>
+        <v>33.546065522107597</v>
       </c>
       <c r="AF26" s="2" t="s">
         <v>427</v>
@@ -10745,17 +10885,29 @@
     </row>
     <row r="27" spans="4:59" ht="18">
       <c r="L27" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>21</v>
+        <v>429</v>
       </c>
       <c r="N27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <f>O25*O26</f>
-        <v>0.91281936564032373</v>
+        <f>O22</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="X27" s="8" t="s">
         <v>249</v>
@@ -10780,7 +10932,7 @@
       </c>
       <c r="AE27">
         <f>AE9+AE19+AE20+AE25+AE26</f>
-        <v>272.0756203075187</v>
+        <v>194.98148598387098</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>431</v>
@@ -10792,13 +10944,37 @@
         <v>2</v>
       </c>
       <c r="AI27">
-        <f>(2*O12)+O13+O16</f>
-        <v>3.4327574975793827E-2</v>
+        <f>(2*O14)+O16+O20</f>
+        <v>4.1999999999999996E-2</v>
       </c>
     </row>
     <row r="28" spans="4:59" ht="18">
-      <c r="M28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="L28" t="s">
+        <v>471</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <f>O14-O22</f>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R28" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <f>S4-2*(S27+S25)</f>
+        <v>0.10200000000000001</v>
+      </c>
       <c r="X28" t="s">
         <v>270</v>
       </c>
@@ -10809,8 +10985,8 @@
         <v>3</v>
       </c>
       <c r="AA28">
-        <f>O15/K8</f>
-        <v>0.58262944389955584</v>
+        <f>O18/K8</f>
+        <v>0.34900982444517153</v>
       </c>
       <c r="AB28" t="s">
         <v>275</v>
@@ -10823,7 +10999,7 @@
       </c>
       <c r="AE28">
         <f>AE27/(K6*(W22^2))</f>
-        <v>0.32045885643689109</v>
+        <v>0.30999945525386469</v>
       </c>
       <c r="AF28" s="2" t="s">
         <v>433</v>
@@ -10835,17 +11011,34 @@
         <v>479</v>
       </c>
       <c r="AI28">
-        <f>(AI22/(K5*AI27*G16))*((AI26/AI24)+((S17+S18)/(16*AI25)))</f>
-        <v>1.5807702425409054</v>
+        <f>(AI22/(K5*AI27*G18))*((AI26/AI24)+((S18+S20)/(16*AI25)))</f>
+        <v>1.2938424453244022</v>
       </c>
     </row>
     <row r="29" spans="4:59" ht="18">
+      <c r="L29" t="s">
+        <v>427</v>
+      </c>
       <c r="M29" s="3" t="s">
-        <v>499</v>
+        <v>465</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
       </c>
       <c r="O29">
-        <f>B2</f>
-        <v>8</v>
+        <v>0.4</v>
+      </c>
+      <c r="P29" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R29" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>0.10199999999999999</v>
       </c>
       <c r="X29" t="s">
         <v>270</v>
@@ -10857,8 +11050,8 @@
         <v>3</v>
       </c>
       <c r="AA29">
-        <f>O15/O20</f>
-        <v>10</v>
+        <f>O18/O25</f>
+        <v>6</v>
       </c>
       <c r="AB29" s="8" t="s">
         <v>328</v>
@@ -10871,7 +11064,7 @@
       </c>
       <c r="AE29" s="8">
         <f>K6*AA11*(K10^2)</f>
-        <v>521.48199112667066</v>
+        <v>530.04081329102996</v>
       </c>
       <c r="AF29" s="2" t="s">
         <v>435</v>
@@ -10884,19 +11077,35 @@
       </c>
       <c r="AI29">
         <f>AI21*AE29*((2*AA8)/AA9)</f>
-        <v>447.15774252449444</v>
+        <v>454.41659495486419</v>
       </c>
     </row>
     <row r="30" spans="4:59" ht="18">
       <c r="L30" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>412</v>
+        <v>467</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
       </c>
       <c r="O30">
-        <f>K5/2</f>
-        <v>36</v>
+        <f>SIN(0.8*(PI()/2))</f>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="P30" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="R30" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <f>G18</f>
+        <v>0.14299999999999999</v>
       </c>
       <c r="X30" t="s">
         <v>249</v>
@@ -10921,7 +11130,7 @@
       </c>
       <c r="AE30">
         <f>S2*AA23*(S6^2)</f>
-        <v>363.18287008583036</v>
+        <v>357.35420020746113</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>437</v>
@@ -10933,19 +11142,31 @@
         <v>479</v>
       </c>
       <c r="AI30">
-        <f>(AI29/(2*K5*AI27*AA8))*((AI26/AI24)+(S19/(12*AI25)))</f>
-        <v>0.9551652104411098</v>
+        <f>(AI29/(2*K5*AI27*AA8))*((AI26/AI24)+(S22/(12*AI25)))</f>
+        <v>0.78677586848628389</v>
       </c>
     </row>
     <row r="31" spans="4:59" ht="18">
       <c r="L31" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>489</v>
+        <v>468</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
       </c>
       <c r="O31">
-        <f>(O29/2)/(B2/2)</f>
+        <f>SIN(PI()/(2*K6))/(K7*SIN(PI()/(2*K6*K7)))</f>
+        <v>0.95979508052393891</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="R31" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31">
         <v>1</v>
       </c>
       <c r="X31" t="s">
@@ -10958,8 +11179,8 @@
         <v>3</v>
       </c>
       <c r="AA31">
-        <f>(0.34*(K7/(B2/2))*AA8)-(0.64*AA25*G5)</f>
-        <v>8.6652519447103851E-3</v>
+        <f>(0.34*(K7/(B2/2))*AA8)-(0.64*AA25*G6)</f>
+        <v>9.3608651169382884E-3</v>
       </c>
       <c r="AB31" s="8" t="s">
         <v>249</v>
@@ -10983,8 +11204,8 @@
         <v>479</v>
       </c>
       <c r="AI31" s="8">
-        <f>AI19*(AI29/(2*PI()*G4*AI20*AA3))</f>
-        <v>14.986737550770847</v>
+        <f>AI19*(AI29/(2*PI()*G5*AI20*AA3))</f>
+        <v>14.973445279151084</v>
       </c>
       <c r="BE31">
         <v>0</v>
@@ -10995,14 +11216,17 @@
     </row>
     <row r="32" spans="4:59" ht="18">
       <c r="L32" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>487</v>
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
       </c>
       <c r="O32">
-        <f>K5/B2</f>
-        <v>9</v>
+        <f>O30*O31</f>
+        <v>0.91281936564032373</v>
       </c>
       <c r="X32" s="8" t="s">
         <v>255</v>
@@ -11014,8 +11238,8 @@
         <v>3</v>
       </c>
       <c r="AA32" s="8">
-        <f>(O22/(3*O16))+(0.785-(O15/(2*O16))+(O23/O16)+(O14/O15))</f>
-        <v>1.5171771218909287</v>
+        <f>(O27/(3*O20))+(0.785-(O18/(2*O20))+(O28/O20)+(O17/O18))</f>
+        <v>2.8683333333333332</v>
       </c>
       <c r="AB32" s="8" t="s">
         <v>333</v>
@@ -11040,8 +11264,8 @@
         <v>479</v>
       </c>
       <c r="AI32">
-        <f>(((AI23+AI28)*2*G16)/AA9)+(((AI30+AI31)*AA8)/AA9)</f>
-        <v>15.023724900036486</v>
+        <f>(((AI23+AI28)*2*G18)/AA9)+(((AI30+AI31)*AA8)/AA9)</f>
+        <v>13.643000250110546</v>
       </c>
       <c r="BE32">
         <v>0.03</v>
@@ -11051,15 +11275,12 @@
       </c>
     </row>
     <row r="33" spans="12:58" ht="18">
-      <c r="L33" t="s">
-        <v>484</v>
-      </c>
       <c r="M33" s="3" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="O33">
-        <f>O32</f>
-        <v>9</v>
+        <f>B2</f>
+        <v>8</v>
       </c>
       <c r="X33" t="s">
         <v>256</v>
@@ -11071,8 +11292,8 @@
         <v>3</v>
       </c>
       <c r="AA33">
-        <f>(K8/(12*O20*1.2))*AA26</f>
-        <v>0.98071946215719674</v>
+        <f>(K8/(12*O25*1.2))*AA26</f>
+        <v>0.98231322144203648</v>
       </c>
       <c r="AB33" s="8" t="s">
         <v>336</v>
@@ -11085,7 +11306,7 @@
       </c>
       <c r="AE33">
         <f>(AE27+AE29+AE30)</f>
-        <v>1156.7404815200198</v>
+        <v>1082.3764994823621</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>443</v>
@@ -11098,19 +11319,19 @@
       </c>
       <c r="AI33">
         <f>AE37-((1-AI19)*(AI22+AE27))-(0.9*AE32)</f>
-        <v>1033.2942829323179</v>
+        <v>999.86137080852438</v>
       </c>
     </row>
     <row r="34" spans="12:58" ht="18">
       <c r="L34" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="O34">
-        <f>(2*O31)-O33</f>
-        <v>-7</v>
+        <f>K5/2</f>
+        <v>36</v>
       </c>
       <c r="X34" t="s">
         <v>245</v>
@@ -11122,8 +11343,8 @@
         <v>200</v>
       </c>
       <c r="AA34">
-        <f>15.8*(50/100)*((K15/100)^2)*(G16/((B2/2)*K7))*(AA31+AA32+AA33)</f>
-        <v>0.57524769754040606</v>
+        <f>15.8*(50/100)*((K15/100)^2)*(G18/((B2/2)*K7))*(AA31+AA32+AA33)</f>
+        <v>0.88433989752077458</v>
       </c>
       <c r="AB34" s="8" t="s">
         <v>472</v>
@@ -11136,7 +11357,7 @@
       </c>
       <c r="AE34">
         <f>AE9+AE19+AE25</f>
-        <v>114.92440172288772</v>
+        <v>145.72830240591117</v>
       </c>
       <c r="AF34" s="2" t="s">
         <v>447</v>
@@ -11159,13 +11380,14 @@
     </row>
     <row r="35" spans="12:58" ht="18.75">
       <c r="L35" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <f>(O33/2)/(B2/2)</f>
+        <v>1</v>
       </c>
       <c r="X35" t="s">
         <v>271</v>
@@ -11178,7 +11400,7 @@
       </c>
       <c r="AA35">
         <f>S12/S15</f>
-        <v>9.5974464865308917E-2</v>
+        <v>9.5817771861447187E-2</v>
       </c>
       <c r="AB35" s="8" t="s">
         <v>473</v>
@@ -11191,7 +11413,7 @@
       </c>
       <c r="AE35">
         <f>AE26+AE20</f>
-        <v>157.15121858463098</v>
+        <v>49.253183577959831</v>
       </c>
       <c r="AF35" s="16" t="s">
         <v>446</v>
@@ -11203,8 +11425,8 @@
         <v>82</v>
       </c>
       <c r="AI35" s="8">
-        <f>((PI()*G2)+(8*AI34))*(G16+(2*AA3))</f>
-        <v>0.81246485765634391</v>
+        <f>((PI()*G2)+(8*AI34))*(G18+(2*AA3))</f>
+        <v>0.81689162265499138</v>
       </c>
       <c r="BE35">
         <v>0.03</v>
@@ -11215,14 +11437,14 @@
     </row>
     <row r="36" spans="12:58" ht="18.75">
       <c r="L36" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O36">
-        <f>O35*(O29/2)</f>
-        <v>24</v>
+        <f>K5/B2</f>
+        <v>9</v>
       </c>
       <c r="X36" t="s">
         <v>271</v>
@@ -11234,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AA36">
-        <f>S12/O20</f>
+        <f>S12/O25</f>
         <v>2</v>
       </c>
       <c r="AB36" s="8" t="s">
@@ -11248,7 +11470,7 @@
       </c>
       <c r="AE36">
         <f>(1.3*AE33)-AE33</f>
-        <v>347.02214445600589</v>
+        <v>324.71294984470865</v>
       </c>
       <c r="AF36" t="s">
         <v>413</v>
@@ -11265,14 +11487,14 @@
     </row>
     <row r="37" spans="12:58" ht="18">
       <c r="L37" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="O37">
-        <f>O36/(O29/2)</f>
-        <v>6</v>
+        <f>O36</f>
+        <v>9</v>
       </c>
       <c r="X37" s="15" t="s">
         <v>249</v>
@@ -11297,7 +11519,7 @@
       </c>
       <c r="AE37">
         <f>(1.3*AE33)+AE32</f>
-        <v>1576.2116179760258</v>
+        <v>1479.5384413270708</v>
       </c>
       <c r="AF37" s="16" t="s">
         <v>456</v>
@@ -11310,19 +11532,25 @@
       </c>
       <c r="AI37">
         <f>AI33/(AI35*AI36)</f>
-        <v>60.561991327699005</v>
+        <v>58.284899622585733</v>
+      </c>
+      <c r="BE37">
+        <v>0.24</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="12:58" ht="18">
       <c r="L38" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="O38">
-        <f>O30/(O35*(O29/2))</f>
-        <v>1.5</v>
+        <f>(2*O35)-O37</f>
+        <v>-7</v>
       </c>
       <c r="X38" t="s">
         <v>249</v>
@@ -11348,7 +11576,7 @@
       </c>
       <c r="AE38">
         <f>B1+AE37</f>
-        <v>10576.211617976025</v>
+        <v>10479.538441327071</v>
       </c>
       <c r="AF38" s="16" t="s">
         <v>458</v>
@@ -11361,10 +11589,25 @@
       </c>
       <c r="AI38">
         <f>AI37+AI32</f>
-        <v>75.585716227735489</v>
+        <v>71.927899872696287</v>
+      </c>
+      <c r="BE38">
+        <v>0.24</v>
+      </c>
+      <c r="BF38">
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="12:58" ht="18.75">
+      <c r="L39" t="s">
+        <v>493</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
       <c r="X39" t="s">
         <v>272</v>
       </c>
@@ -11389,7 +11632,7 @@
       </c>
       <c r="AE39" s="8">
         <f>(1-(AE37/AE38))*100</f>
-        <v>85.096633133767924</v>
+        <v>85.881644982641902</v>
       </c>
       <c r="AF39" s="16" t="s">
         <v>460</v>
@@ -11402,10 +11645,20 @@
       </c>
       <c r="AI39">
         <f>AE37/(1100*2*AI37)</f>
-        <v>1.1830189375312937E-2</v>
+        <v>1.1538451257276977E-2</v>
       </c>
     </row>
     <row r="40" spans="12:58" ht="18.75">
+      <c r="L40" t="s">
+        <v>491</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="O40">
+        <f>O39*(K13)</f>
+        <v>6</v>
+      </c>
       <c r="X40" t="s">
         <v>260</v>
       </c>
@@ -11416,8 +11669,8 @@
         <v>3</v>
       </c>
       <c r="AA40">
-        <f>((2.3*AA20)/(S1*G16*AA39))*LOG10((4.7*AA20)/((2*AA19)+AA13))</f>
-        <v>0.16062262336520844</v>
+        <f>((2.3*AA20)/(S1*G18*AA39))*LOG10((4.7*AA20)/((2*AA19)+AA13))</f>
+        <v>0.1615859409219301</v>
       </c>
       <c r="AF40" s="16" t="s">
         <v>463</v>
@@ -11434,6 +11687,16 @@
       </c>
     </row>
     <row r="41" spans="12:58" ht="18">
+      <c r="L41" t="s">
+        <v>495</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="O41">
+        <f>O40/K6</f>
+        <v>2</v>
+      </c>
       <c r="X41" t="s">
         <v>264</v>
       </c>
@@ -11444,11 +11707,21 @@
         <v>3</v>
       </c>
       <c r="AA41">
-        <f>((((S22/(3*S17))*((1-((PI()*(S17^2))/(8*S20)))^2))+0.66-(S12/(2*S17)))*S25)+(S10/S12)</f>
-        <v>1.8190250945958573</v>
+        <f>((((S27/(3*S18))*((1-((PI()*(S18^2))/(8*S23)))^2))+0.66-(S12/(2*S18)))*S31)+(S10/S12)</f>
+        <v>1.811661380165434</v>
       </c>
     </row>
     <row r="42" spans="12:58" ht="18">
+      <c r="L42" t="s">
+        <v>497</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="O42">
+        <f>O34/(O39*(K13))</f>
+        <v>6</v>
+      </c>
       <c r="X42" t="s">
         <v>265</v>
       </c>
@@ -11459,8 +11732,8 @@
         <v>3</v>
       </c>
       <c r="AA42">
-        <f>(S15/(12*O20*1.1))*AA38</f>
-        <v>1.6443661253377244</v>
+        <f>(S15/(12*O25*1.1))*AA38</f>
+        <v>1.6470551950439185</v>
       </c>
     </row>
     <row r="43" spans="12:58" ht="18">
@@ -11474,8 +11747,8 @@
         <v>200</v>
       </c>
       <c r="AA43">
-        <f>7.9*50*G16*(AA40+AA41+AA42)*(10^-6)</f>
-        <v>2.0505405770074981E-4</v>
+        <f>7.9*50*G18*(AA40+AA41+AA42)*(10^-6)</f>
+        <v>2.0449278762367542E-4</v>
       </c>
     </row>
     <row r="44" spans="12:58" ht="18">
@@ -11489,8 +11762,8 @@
         <v>200</v>
       </c>
       <c r="AA44">
-        <f>AA43*((4*K6*((K15*G12)^2))/S1)</f>
-        <v>0.92566435827499793</v>
+        <f>AA43*((4*K6*((K15*G13)^2))/S1)</f>
+        <v>0.92313064735242623</v>
       </c>
     </row>
     <row r="45" spans="12:58" ht="18">
@@ -11505,7 +11778,7 @@
       </c>
       <c r="AA45">
         <f>(K9/W22)-AA34</f>
-        <v>13.096681122664585</v>
+        <v>15.000112253666057</v>
       </c>
     </row>
   </sheetData>
@@ -11522,13 +11795,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18">
+        <v>9</v>
+      </c>
+      <c r="F1" s="17">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19">
+        <v>13</v>
+      </c>
+      <c r="H1" s="19">
+        <v>15</v>
+      </c>
+      <c r="I1" s="18">
+        <v>17</v>
+      </c>
+      <c r="J1" s="17">
+        <v>19</v>
+      </c>
+      <c r="K1" s="17">
+        <v>21</v>
+      </c>
+      <c r="L1" s="19">
+        <v>23</v>
+      </c>
+      <c r="M1" s="18">
+        <v>25</v>
+      </c>
+      <c r="N1" s="18">
+        <v>27</v>
+      </c>
+      <c r="O1" s="17">
+        <v>29</v>
+      </c>
+      <c r="P1" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="19">
+        <v>33</v>
+      </c>
+      <c r="R1" s="18">
+        <v>35</v>
+      </c>
+      <c r="S1" s="17">
+        <v>37</v>
+      </c>
+      <c r="T1" s="17">
+        <v>39</v>
+      </c>
+      <c r="U1" s="19">
+        <v>41</v>
+      </c>
+      <c r="V1" s="18">
+        <v>43</v>
+      </c>
+      <c r="W1" s="18">
+        <v>45</v>
+      </c>
+      <c r="X1" s="17">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="19">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="19">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="18">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="17">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="17">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="20">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="18">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="18">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="17">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="19">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="19">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="18"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="17">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <v>12</v>
+      </c>
+      <c r="C3" s="19">
+        <v>14</v>
+      </c>
+      <c r="D3" s="18">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18">
+        <v>18</v>
+      </c>
+      <c r="F3" s="17">
+        <v>20</v>
+      </c>
+      <c r="G3" s="19">
+        <v>22</v>
+      </c>
+      <c r="H3" s="19">
+        <v>24</v>
+      </c>
+      <c r="I3" s="18">
+        <v>26</v>
+      </c>
+      <c r="J3" s="17">
+        <v>28</v>
+      </c>
+      <c r="K3" s="17">
+        <v>30</v>
+      </c>
+      <c r="L3" s="19">
+        <v>32</v>
+      </c>
+      <c r="M3" s="18">
+        <v>34</v>
+      </c>
+      <c r="N3" s="18">
+        <v>36</v>
+      </c>
+      <c r="O3" s="17">
+        <v>38</v>
+      </c>
+      <c r="P3" s="19">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>42</v>
+      </c>
+      <c r="R3" s="18">
+        <v>44</v>
+      </c>
+      <c r="S3" s="17">
+        <v>46</v>
+      </c>
+      <c r="T3" s="17">
+        <v>48</v>
+      </c>
+      <c r="U3" s="19">
+        <v>50</v>
+      </c>
+      <c r="V3" s="18">
+        <v>52</v>
+      </c>
+      <c r="W3" s="18">
+        <v>54</v>
+      </c>
+      <c r="X3" s="17">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="19">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
